--- a/src/data/raw/WIPRO.NS_data.xlsx
+++ b/src/data/raw/WIPRO.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>196.7086334228516</v>
+        <v>196.7086181640625</v>
       </c>
       <c r="C2" t="n">
-        <v>197.0554372230225</v>
+        <v>197.0554219373317</v>
       </c>
       <c r="D2" t="n">
-        <v>194.0581198383904</v>
+        <v>194.0581047852031</v>
       </c>
       <c r="E2" t="n">
-        <v>194.7269319800053</v>
+        <v>194.7269168749378</v>
       </c>
       <c r="F2" t="n">
         <v>5994422</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>194.1076354980469</v>
+        <v>194.1076507568359</v>
       </c>
       <c r="C6" t="n">
-        <v>194.7021519333019</v>
+        <v>194.7021672388258</v>
       </c>
       <c r="D6" t="n">
-        <v>190.7882949055526</v>
+        <v>190.7883099034085</v>
       </c>
       <c r="E6" t="n">
-        <v>191.2341746724034</v>
+        <v>191.2341897053099</v>
       </c>
       <c r="F6" t="n">
         <v>7347432</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>196.3618469238281</v>
+        <v>196.3618316650391</v>
       </c>
       <c r="C12" t="n">
-        <v>199.1857624397539</v>
+        <v>199.1857469615255</v>
       </c>
       <c r="D12" t="n">
-        <v>195.0737379478282</v>
+        <v>195.0737227891349</v>
       </c>
       <c r="E12" t="n">
-        <v>198.1949117073205</v>
+        <v>198.1948963060886</v>
       </c>
       <c r="F12" t="n">
         <v>14310032</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>199.7554931640625</v>
+        <v>199.7555084228516</v>
       </c>
       <c r="C13" t="n">
-        <v>200.0775165951511</v>
+        <v>200.0775318785387</v>
       </c>
       <c r="D13" t="n">
-        <v>197.1792754769923</v>
+        <v>197.179290538991</v>
       </c>
       <c r="E13" t="n">
-        <v>197.4269881346267</v>
+        <v>197.4270032155475</v>
       </c>
       <c r="F13" t="n">
         <v>16080426</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>199.8545684814453</v>
+        <v>199.8545837402344</v>
       </c>
       <c r="C14" t="n">
-        <v>200.15182669344</v>
+        <v>200.1518419749246</v>
       </c>
       <c r="D14" t="n">
-        <v>197.5508437970525</v>
+        <v>197.5508588799534</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2105216214407</v>
+        <v>199.2105368310571</v>
       </c>
       <c r="F14" t="n">
         <v>9447456</v>

--- a/src/data/raw/WIPRO.NS_data.xlsx
+++ b/src/data/raw/WIPRO.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>196.7086181640625</v>
+        <v>197.6157684326172</v>
       </c>
       <c r="C2" t="n">
-        <v>197.0554219373317</v>
+        <v>197.9641715416907</v>
       </c>
       <c r="D2" t="n">
-        <v>194.0581047852031</v>
+        <v>194.9530318276181</v>
       </c>
       <c r="E2" t="n">
-        <v>194.7269168749378</v>
+        <v>195.6249282411231</v>
       </c>
       <c r="F2" t="n">
         <v>5994422</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>193.0672607421875</v>
+        <v>193.9576110839844</v>
       </c>
       <c r="C3" t="n">
-        <v>196.9315723404405</v>
+        <v>197.839743368868</v>
       </c>
       <c r="D3" t="n">
-        <v>192.5222898452079</v>
+        <v>193.4101269953713</v>
       </c>
       <c r="E3" t="n">
-        <v>196.9315723404405</v>
+        <v>197.839743368868</v>
       </c>
       <c r="F3" t="n">
         <v>8926522</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>191.6800689697266</v>
+        <v>192.5640106201172</v>
       </c>
       <c r="C4" t="n">
-        <v>194.3058324521066</v>
+        <v>195.2018829342533</v>
       </c>
       <c r="D4" t="n">
-        <v>190.1194821078568</v>
+        <v>190.9962270385589</v>
       </c>
       <c r="E4" t="n">
-        <v>193.2158906112421</v>
+        <v>194.1069147753432</v>
       </c>
       <c r="F4" t="n">
         <v>9568980</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>189.2524871826172</v>
+        <v>190.1252288818359</v>
       </c>
       <c r="C5" t="n">
-        <v>192.6213735769386</v>
+        <v>193.5096509643801</v>
       </c>
       <c r="D5" t="n">
-        <v>188.9552289433107</v>
+        <v>189.8265998301045</v>
       </c>
       <c r="E5" t="n">
-        <v>191.7296139782012</v>
+        <v>192.6137789980903</v>
       </c>
       <c r="F5" t="n">
         <v>8484754</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>194.1076507568359</v>
+        <v>195.0027923583984</v>
       </c>
       <c r="C6" t="n">
-        <v>194.7021672388258</v>
+        <v>195.6000504965455</v>
       </c>
       <c r="D6" t="n">
-        <v>190.7883099034085</v>
+        <v>191.6681441223095</v>
       </c>
       <c r="E6" t="n">
-        <v>191.2341897053099</v>
+        <v>192.116080131467</v>
       </c>
       <c r="F6" t="n">
         <v>7347432</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>194.7269287109375</v>
+        <v>195.6249237060547</v>
       </c>
       <c r="C7" t="n">
-        <v>195.1480432843091</v>
+        <v>196.0479802747207</v>
       </c>
       <c r="D7" t="n">
-        <v>191.9030132737987</v>
+        <v>192.787985612286</v>
       </c>
       <c r="E7" t="n">
-        <v>194.2067381385962</v>
+        <v>195.1023342434645</v>
       </c>
       <c r="F7" t="n">
         <v>7879496</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>195.1232757568359</v>
+        <v>196.0231018066406</v>
       </c>
       <c r="C8" t="n">
-        <v>196.1884372280509</v>
+        <v>197.0931753522113</v>
       </c>
       <c r="D8" t="n">
-        <v>193.9590231686412</v>
+        <v>194.8534801777543</v>
       </c>
       <c r="E8" t="n">
-        <v>194.7021611884444</v>
+        <v>195.6000452359066</v>
       </c>
       <c r="F8" t="n">
         <v>7656600</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>195.4452972412109</v>
+        <v>196.3466186523438</v>
       </c>
       <c r="C9" t="n">
-        <v>197.1297403786424</v>
+        <v>198.0388298184104</v>
       </c>
       <c r="D9" t="n">
-        <v>193.4635958750136</v>
+        <v>194.3557784125228</v>
       </c>
       <c r="E9" t="n">
-        <v>196.0645789181476</v>
+        <v>196.9687562272878</v>
       </c>
       <c r="F9" t="n">
         <v>9510500</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>195.1480407714844</v>
+        <v>196.0479888916016</v>
       </c>
       <c r="C10" t="n">
-        <v>196.4856952533976</v>
+        <v>197.391812124334</v>
       </c>
       <c r="D10" t="n">
-        <v>191.4818962348095</v>
+        <v>192.36493749862</v>
       </c>
       <c r="E10" t="n">
-        <v>196.1884370219523</v>
+        <v>197.0931830516261</v>
       </c>
       <c r="F10" t="n">
         <v>13621860</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>197.4765472412109</v>
+        <v>198.3872222900391</v>
       </c>
       <c r="C11" t="n">
-        <v>198.6655650556127</v>
+        <v>199.5817233320509</v>
       </c>
       <c r="D11" t="n">
-        <v>192.7204608644223</v>
+        <v>193.6092029330868</v>
       </c>
       <c r="E11" t="n">
-        <v>193.2158862136881</v>
+        <v>194.1069129663338</v>
       </c>
       <c r="F11" t="n">
         <v>23867444</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>196.3618316650391</v>
+        <v>197.2673797607422</v>
       </c>
       <c r="C12" t="n">
-        <v>199.1857469615255</v>
+        <v>200.1043179094676</v>
       </c>
       <c r="D12" t="n">
-        <v>195.0737227891349</v>
+        <v>195.9733306034211</v>
       </c>
       <c r="E12" t="n">
-        <v>198.1948963060886</v>
+        <v>199.1088978175137</v>
       </c>
       <c r="F12" t="n">
         <v>14310032</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>199.7555084228516</v>
+        <v>200.6766967773438</v>
       </c>
       <c r="C13" t="n">
-        <v>200.0775318785387</v>
+        <v>201.0002052697119</v>
       </c>
       <c r="D13" t="n">
-        <v>197.179290538991</v>
+        <v>198.0885984605881</v>
       </c>
       <c r="E13" t="n">
-        <v>197.4270032155475</v>
+        <v>198.3374534837797</v>
       </c>
       <c r="F13" t="n">
         <v>16080426</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>199.8545837402344</v>
+        <v>200.7762298583984</v>
       </c>
       <c r="C14" t="n">
-        <v>200.1518419749246</v>
+        <v>201.0748589242849</v>
       </c>
       <c r="D14" t="n">
-        <v>197.5508588799534</v>
+        <v>198.4618811783628</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2105368310571</v>
+        <v>200.1292128730656</v>
       </c>
       <c r="F14" t="n">
         <v>9447456</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>199.730712890625</v>
+        <v>200.6518096923828</v>
       </c>
       <c r="C15" t="n">
-        <v>200.8454198503361</v>
+        <v>201.7716573387746</v>
       </c>
       <c r="D15" t="n">
-        <v>198.8141730332486</v>
+        <v>199.731043034235</v>
       </c>
       <c r="E15" t="n">
-        <v>199.9288799929597</v>
+        <v>200.8508906806269</v>
       </c>
       <c r="F15" t="n">
         <v>9265614</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>201.6381072998047</v>
+        <v>202.5679779052734</v>
       </c>
       <c r="C16" t="n">
-        <v>202.0096762936004</v>
+        <v>202.9412604198409</v>
       </c>
       <c r="D16" t="n">
-        <v>199.4086933370304</v>
+        <v>200.3282828178687</v>
       </c>
       <c r="E16" t="n">
-        <v>200.7463477623674</v>
+        <v>201.6721059458733</v>
       </c>
       <c r="F16" t="n">
         <v>8815290</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>202.4347076416016</v>
+        <v>202.8673553466797</v>
       </c>
       <c r="C17" t="n">
-        <v>204.2270494323875</v>
+        <v>204.6635277679516</v>
       </c>
       <c r="D17" t="n">
-        <v>201.7127873445015</v>
+        <v>202.1438921463719</v>
       </c>
       <c r="E17" t="n">
-        <v>203.3308709400726</v>
+        <v>203.7654339441574</v>
       </c>
       <c r="F17" t="n">
         <v>9552640</v>
@@ -781,16 +781,16 @@
         <v>44951</v>
       </c>
       <c r="B18" t="n">
-        <v>199.9204406738281</v>
+        <v>200.3477172851562</v>
       </c>
       <c r="C18" t="n">
-        <v>202.0861863184204</v>
+        <v>202.5180916333313</v>
       </c>
       <c r="D18" t="n">
-        <v>199.1487453630836</v>
+        <v>199.5743726815418</v>
       </c>
       <c r="E18" t="n">
-        <v>201.6381046801221</v>
+        <v>202.0690523400611</v>
       </c>
       <c r="F18" t="n">
         <v>6355554</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>198.1778869628906</v>
+        <v>198.6014404296875</v>
       </c>
       <c r="C19" t="n">
-        <v>200.9410848905881</v>
+        <v>201.3705439711729</v>
       </c>
       <c r="D19" t="n">
-        <v>196.261092465018</v>
+        <v>196.6805492842668</v>
       </c>
       <c r="E19" t="n">
-        <v>199.9204384655699</v>
+        <v>200.3477161810272</v>
       </c>
       <c r="F19" t="n">
         <v>7410134</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>200.2689666748047</v>
+        <v>200.6969757080078</v>
       </c>
       <c r="C20" t="n">
-        <v>201.5385339099351</v>
+        <v>201.9692562254501</v>
       </c>
       <c r="D20" t="n">
-        <v>196.684283008557</v>
+        <v>197.1046309596873</v>
       </c>
       <c r="E20" t="n">
-        <v>198.1778986705195</v>
+        <v>198.6014387337682</v>
       </c>
       <c r="F20" t="n">
         <v>7261256</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>198.5762023925781</v>
+        <v>199.0005950927734</v>
       </c>
       <c r="C21" t="n">
-        <v>200.4183192324184</v>
+        <v>200.8466488642818</v>
       </c>
       <c r="D21" t="n">
-        <v>198.0036527693013</v>
+        <v>198.4268218290116</v>
       </c>
       <c r="E21" t="n">
-        <v>200.2938512624085</v>
+        <v>200.721914884059</v>
       </c>
       <c r="F21" t="n">
         <v>9566846</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>200.3436431884766</v>
+        <v>200.7718200683594</v>
       </c>
       <c r="C22" t="n">
-        <v>201.0904510148704</v>
+        <v>201.5202239815563</v>
       </c>
       <c r="D22" t="n">
-        <v>198.3272681347509</v>
+        <v>198.7511355932544</v>
       </c>
       <c r="E22" t="n">
-        <v>199.8955615314091</v>
+        <v>200.3227807657046</v>
       </c>
       <c r="F22" t="n">
         <v>7029896</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>203.8536529541016</v>
+        <v>204.2893218994141</v>
       </c>
       <c r="C23" t="n">
-        <v>204.1274764181003</v>
+        <v>204.5637305694075</v>
       </c>
       <c r="D23" t="n">
-        <v>200.343646987191</v>
+        <v>200.771814469687</v>
       </c>
       <c r="E23" t="n">
-        <v>200.343646987191</v>
+        <v>200.771814469687</v>
       </c>
       <c r="F23" t="n">
         <v>10835460</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>203.0819396972656</v>
+        <v>203.5159606933594</v>
       </c>
       <c r="C24" t="n">
-        <v>205.6210893600937</v>
+        <v>206.0605369552614</v>
       </c>
       <c r="D24" t="n">
-        <v>202.2106638948923</v>
+        <v>202.6428228249049</v>
       </c>
       <c r="E24" t="n">
-        <v>205.3970409333743</v>
+        <v>205.836009698561</v>
       </c>
       <c r="F24" t="n">
         <v>8850236</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>201.4638519287109</v>
+        <v>201.8944244384766</v>
       </c>
       <c r="C25" t="n">
-        <v>202.2355624541352</v>
+        <v>202.6677842788255</v>
       </c>
       <c r="D25" t="n">
-        <v>199.945348781855</v>
+        <v>200.3726759168064</v>
       </c>
       <c r="E25" t="n">
-        <v>201.8372558363487</v>
+        <v>202.2686263922954</v>
       </c>
       <c r="F25" t="n">
         <v>5958022</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>199.3976898193359</v>
+        <v>199.8238372802734</v>
       </c>
       <c r="C26" t="n">
-        <v>201.8870492427983</v>
+        <v>202.3185168967563</v>
       </c>
       <c r="D26" t="n">
-        <v>198.6757695089942</v>
+        <v>199.100374100967</v>
       </c>
       <c r="E26" t="n">
-        <v>201.8870492427983</v>
+        <v>202.3185168967563</v>
       </c>
       <c r="F26" t="n">
         <v>6683580</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>202.5093841552734</v>
+        <v>202.9421997070312</v>
       </c>
       <c r="C27" t="n">
-        <v>202.9325782857004</v>
+        <v>203.3662983140672</v>
       </c>
       <c r="D27" t="n">
-        <v>199.6466208881737</v>
+        <v>200.0733179656288</v>
       </c>
       <c r="E27" t="n">
-        <v>199.6466208881737</v>
+        <v>200.0733179656288</v>
       </c>
       <c r="F27" t="n">
         <v>8300976</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>203.2810821533203</v>
+        <v>203.7155303955078</v>
       </c>
       <c r="C28" t="n">
-        <v>203.6047110298015</v>
+        <v>204.0398509251178</v>
       </c>
       <c r="D28" t="n">
-        <v>200.9161907276613</v>
+        <v>201.3455847714357</v>
       </c>
       <c r="E28" t="n">
-        <v>202.5093868182744</v>
+        <v>202.9421858087054</v>
       </c>
       <c r="F28" t="n">
         <v>5277374</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>202.0364074707031</v>
+        <v>202.4682006835938</v>
       </c>
       <c r="C29" t="n">
-        <v>202.6338598179744</v>
+        <v>203.0669299089872</v>
       </c>
       <c r="D29" t="n">
-        <v>200.5427917963692</v>
+        <v>200.9713928464268</v>
       </c>
       <c r="E29" t="n">
-        <v>202.6338598179744</v>
+        <v>203.0669299089872</v>
       </c>
       <c r="F29" t="n">
         <v>5160140</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>199.4474792480469</v>
+        <v>199.8737335205078</v>
       </c>
       <c r="C30" t="n">
-        <v>201.9617261781399</v>
+        <v>202.3933538376199</v>
       </c>
       <c r="D30" t="n">
-        <v>198.7504616510369</v>
+        <v>199.1752262745445</v>
       </c>
       <c r="E30" t="n">
-        <v>201.9617261781399</v>
+        <v>202.3933538376199</v>
       </c>
       <c r="F30" t="n">
         <v>4825356</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>201.6878967285156</v>
+        <v>202.1189575195312</v>
       </c>
       <c r="C31" t="n">
-        <v>202.3600267889609</v>
+        <v>202.7925241010579</v>
       </c>
       <c r="D31" t="n">
-        <v>199.8955549652762</v>
+        <v>200.3227850442324</v>
       </c>
       <c r="E31" t="n">
-        <v>200.642362767139</v>
+        <v>201.0711889734139</v>
       </c>
       <c r="F31" t="n">
         <v>4638822</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>202.8329925537109</v>
+        <v>203.2664947509766</v>
       </c>
       <c r="C32" t="n">
-        <v>203.0570409680588</v>
+        <v>203.4910220099083</v>
       </c>
       <c r="D32" t="n">
-        <v>199.3230020212164</v>
+        <v>199.7490025364871</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4930039299957</v>
+        <v>200.9215050167557</v>
       </c>
       <c r="F32" t="n">
         <v>5227672</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>204.0776824951172</v>
+        <v>204.5138397216797</v>
       </c>
       <c r="C33" t="n">
-        <v>205.7455563475931</v>
+        <v>206.1852781737965</v>
       </c>
       <c r="D33" t="n">
-        <v>203.4055524120187</v>
+        <v>203.8402731542515</v>
       </c>
       <c r="E33" t="n">
-        <v>203.5300203831908</v>
+        <v>203.9650071398376</v>
       </c>
       <c r="F33" t="n">
         <v>11189362</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>202.2853393554688</v>
+        <v>202.7176666259766</v>
       </c>
       <c r="C34" t="n">
-        <v>203.1317276314708</v>
+        <v>203.5658638157354</v>
       </c>
       <c r="D34" t="n">
-        <v>201.1402401056721</v>
+        <v>201.570120052836</v>
       </c>
       <c r="E34" t="n">
-        <v>202.5591780065725</v>
+        <v>202.9920905291652</v>
       </c>
       <c r="F34" t="n">
         <v>5616244</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>202.6587371826172</v>
+        <v>203.0918731689453</v>
       </c>
       <c r="C35" t="n">
-        <v>203.0321410824946</v>
+        <v>203.4660751329414</v>
       </c>
       <c r="D35" t="n">
-        <v>200.2440707851512</v>
+        <v>200.6720459828242</v>
       </c>
       <c r="E35" t="n">
-        <v>201.7874614162365</v>
+        <v>202.2187352529544</v>
       </c>
       <c r="F35" t="n">
         <v>6497188</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>200.5178985595703</v>
+        <v>200.9464416503906</v>
       </c>
       <c r="C36" t="n">
-        <v>203.1317259150954</v>
+        <v>203.5658552287011</v>
       </c>
       <c r="D36" t="n">
-        <v>200.1942848781312</v>
+        <v>200.622136347863</v>
       </c>
       <c r="E36" t="n">
-        <v>202.8329997499809</v>
+        <v>203.266490631631</v>
       </c>
       <c r="F36" t="n">
         <v>5761172</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>196.7340698242188</v>
+        <v>197.1545257568359</v>
       </c>
       <c r="C37" t="n">
-        <v>199.3230096709264</v>
+        <v>199.7489986315478</v>
       </c>
       <c r="D37" t="n">
-        <v>196.3855686254445</v>
+        <v>196.8052797486005</v>
       </c>
       <c r="E37" t="n">
-        <v>198.899815535274</v>
+        <v>199.3249000542543</v>
       </c>
       <c r="F37" t="n">
         <v>6883372</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>196.1366271972656</v>
+        <v>196.5558166503906</v>
       </c>
       <c r="C38" t="n">
-        <v>198.5015185548458</v>
+        <v>198.9257623291807</v>
       </c>
       <c r="D38" t="n">
-        <v>195.862788555345</v>
+        <v>196.2813927517936</v>
       </c>
       <c r="E38" t="n">
-        <v>197.0576779919852</v>
+        <v>197.4788359442348</v>
       </c>
       <c r="F38" t="n">
         <v>6078322</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>195.8130035400391</v>
+        <v>196.2314910888672</v>
       </c>
       <c r="C39" t="n">
-        <v>197.4061996271781</v>
+        <v>197.8280921221194</v>
       </c>
       <c r="D39" t="n">
-        <v>195.4395996315387</v>
+        <v>195.8572891491658</v>
       </c>
       <c r="E39" t="n">
-        <v>197.1323761718154</v>
+        <v>197.5536834568647</v>
       </c>
       <c r="F39" t="n">
         <v>5106634</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>194.3442840576172</v>
+        <v>194.7596435546875</v>
       </c>
       <c r="C40" t="n">
-        <v>195.8129969318468</v>
+        <v>196.2314954141656</v>
       </c>
       <c r="D40" t="n">
-        <v>191.904714976513</v>
+        <v>192.3148605400143</v>
       </c>
       <c r="E40" t="n">
-        <v>195.539173485725</v>
+        <v>195.9570867428625</v>
       </c>
       <c r="F40" t="n">
         <v>5554710</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>192.7013092041016</v>
+        <v>193.1131439208984</v>
       </c>
       <c r="C41" t="n">
-        <v>195.7632334867628</v>
+        <v>196.1816120445175</v>
       </c>
       <c r="D41" t="n">
-        <v>192.0291943067801</v>
+        <v>192.4395926023636</v>
       </c>
       <c r="E41" t="n">
-        <v>195.0911033955971</v>
+        <v>195.5080454996666</v>
       </c>
       <c r="F41" t="n">
         <v>10061602</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>194.6430206298828</v>
+        <v>195.0590057373047</v>
       </c>
       <c r="C42" t="n">
-        <v>195.0413120626198</v>
+        <v>195.4581483863036</v>
       </c>
       <c r="D42" t="n">
-        <v>192.8257760841793</v>
+        <v>193.2378774321676</v>
       </c>
       <c r="E42" t="n">
-        <v>193.2240827107605</v>
+        <v>193.6370353074825</v>
       </c>
       <c r="F42" t="n">
         <v>4542612</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>193.1991729736328</v>
+        <v>193.6120910644531</v>
       </c>
       <c r="C43" t="n">
-        <v>194.3442873903325</v>
+        <v>194.75965289566</v>
       </c>
       <c r="D43" t="n">
-        <v>192.8257690713306</v>
+        <v>193.2378890985564</v>
       </c>
       <c r="E43" t="n">
-        <v>193.5228018440363</v>
+        <v>193.9364116159505</v>
       </c>
       <c r="F43" t="n">
         <v>4438972</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>194.3940734863281</v>
+        <v>194.8095397949219</v>
       </c>
       <c r="C44" t="n">
-        <v>194.8919453454875</v>
+        <v>195.3084757245016</v>
       </c>
       <c r="D44" t="n">
-        <v>193.7219434376943</v>
+        <v>194.135973244726</v>
       </c>
       <c r="E44" t="n">
-        <v>194.4687512264334</v>
+        <v>194.8843771390956</v>
       </c>
       <c r="F44" t="n">
         <v>4393936</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>196.0370483398438</v>
+        <v>196.4560241699219</v>
       </c>
       <c r="C45" t="n">
-        <v>197.4808737205938</v>
+        <v>197.902935334418</v>
       </c>
       <c r="D45" t="n">
-        <v>195.2155627950931</v>
+        <v>195.6327829234255</v>
       </c>
       <c r="E45" t="n">
-        <v>195.3898209879417</v>
+        <v>195.8074135457287</v>
       </c>
       <c r="F45" t="n">
         <v>6727722</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>195.4645080566406</v>
+        <v>195.8822479248047</v>
       </c>
       <c r="C46" t="n">
-        <v>195.6636537748945</v>
+        <v>196.0818192502797</v>
       </c>
       <c r="D46" t="n">
-        <v>193.5974884595519</v>
+        <v>194.0112381991341</v>
       </c>
       <c r="E46" t="n">
-        <v>194.9915236811737</v>
+        <v>195.408252703775</v>
       </c>
       <c r="F46" t="n">
         <v>4908842</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>194.2198181152344</v>
+        <v>194.6349182128906</v>
       </c>
       <c r="C47" t="n">
-        <v>196.086837614175</v>
+        <v>196.5059280357017</v>
       </c>
       <c r="D47" t="n">
-        <v>193.9708821820423</v>
+        <v>194.3854502365158</v>
       </c>
       <c r="E47" t="n">
-        <v>195.5640630381655</v>
+        <v>195.9820361495244</v>
       </c>
       <c r="F47" t="n">
         <v>4157054</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>193.7219543457031</v>
+        <v>194.1359710693359</v>
       </c>
       <c r="C48" t="n">
-        <v>194.1202457779201</v>
+        <v>194.5351137180006</v>
       </c>
       <c r="D48" t="n">
-        <v>192.4772746277197</v>
+        <v>192.8886312593637</v>
       </c>
       <c r="E48" t="n">
-        <v>193.1245020035334</v>
+        <v>193.5372418700229</v>
       </c>
       <c r="F48" t="n">
         <v>4567396</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>191.9047241210938</v>
+        <v>192.3148651123047</v>
       </c>
       <c r="C49" t="n">
-        <v>195.4645050595241</v>
+        <v>195.8822540556409</v>
       </c>
       <c r="D49" t="n">
-        <v>191.0583358391871</v>
+        <v>191.4666679195935</v>
       </c>
       <c r="E49" t="n">
-        <v>193.6721632350326</v>
+        <v>194.0860816175163</v>
       </c>
       <c r="F49" t="n">
         <v>5982520</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>188.9174957275391</v>
+        <v>189.3212432861328</v>
       </c>
       <c r="C50" t="n">
-        <v>192.7511001843119</v>
+        <v>193.1630407820632</v>
       </c>
       <c r="D50" t="n">
-        <v>187.8719617142939</v>
+        <v>188.273474795855</v>
       </c>
       <c r="E50" t="n">
-        <v>192.4523740099784</v>
+        <v>192.8636761810815</v>
       </c>
       <c r="F50" t="n">
         <v>8094852</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>187.0753631591797</v>
+        <v>187.4751739501953</v>
       </c>
       <c r="C51" t="n">
-        <v>191.0334507726202</v>
+        <v>191.4417206472528</v>
       </c>
       <c r="D51" t="n">
-        <v>186.6521690127986</v>
+        <v>187.0510753683847</v>
       </c>
       <c r="E51" t="n">
-        <v>191.0334507726202</v>
+        <v>191.4417206472528</v>
       </c>
       <c r="F51" t="n">
         <v>7687926</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>185.6315307617188</v>
+        <v>186.0282745361328</v>
       </c>
       <c r="C52" t="n">
-        <v>187.5483405102457</v>
+        <v>187.9491810150555</v>
       </c>
       <c r="D52" t="n">
-        <v>184.2125928858562</v>
+        <v>184.6063040140048</v>
       </c>
       <c r="E52" t="n">
-        <v>186.8762104433799</v>
+        <v>187.2756144281193</v>
       </c>
       <c r="F52" t="n">
         <v>7686620</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>187.4487609863281</v>
+        <v>187.8493804931641</v>
       </c>
       <c r="C53" t="n">
-        <v>188.3698269940868</v>
+        <v>188.7724150229223</v>
       </c>
       <c r="D53" t="n">
-        <v>186.1294035560032</v>
+        <v>186.5272033038805</v>
       </c>
       <c r="E53" t="n">
-        <v>187.7972773764564</v>
+        <v>188.198641739986</v>
       </c>
       <c r="F53" t="n">
         <v>9044282</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>182.7936553955078</v>
+        <v>183.184326171875</v>
       </c>
       <c r="C54" t="n">
-        <v>187.1749370005016</v>
+        <v>187.5749715520086</v>
       </c>
       <c r="D54" t="n">
-        <v>181.7979116480788</v>
+        <v>182.1864542981605</v>
       </c>
       <c r="E54" t="n">
-        <v>186.7019526429353</v>
+        <v>187.1009763214677</v>
       </c>
       <c r="F54" t="n">
         <v>8184754</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>182.4202575683594</v>
+        <v>182.8101196289062</v>
       </c>
       <c r="C55" t="n">
-        <v>184.3370673847959</v>
+        <v>184.7310259828364</v>
       </c>
       <c r="D55" t="n">
-        <v>181.9472883888778</v>
+        <v>182.3361396365833</v>
       </c>
       <c r="E55" t="n">
-        <v>183.7147275219168</v>
+        <v>184.107356077425</v>
       </c>
       <c r="F55" t="n">
         <v>7211152</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>182.4202575683594</v>
+        <v>182.8101196289062</v>
       </c>
       <c r="C56" t="n">
-        <v>184.2125994122201</v>
+        <v>184.6062920017541</v>
       </c>
       <c r="D56" t="n">
-        <v>182.1464341062303</v>
+        <v>182.5357109610517</v>
       </c>
       <c r="E56" t="n">
-        <v>183.1421778868369</v>
+        <v>183.5335828097098</v>
       </c>
       <c r="F56" t="n">
         <v>5374846</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>179.9806823730469</v>
+        <v>180.3653411865234</v>
       </c>
       <c r="C57" t="n">
-        <v>181.6734437051449</v>
+        <v>182.0617203266936</v>
       </c>
       <c r="D57" t="n">
-        <v>179.4081327569636</v>
+        <v>179.7915679043607</v>
       </c>
       <c r="E57" t="n">
-        <v>181.6734437051449</v>
+        <v>182.0617203266936</v>
       </c>
       <c r="F57" t="n">
         <v>9485192</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>180.1051483154297</v>
+        <v>180.4900817871094</v>
       </c>
       <c r="C58" t="n">
-        <v>182.644297881935</v>
+        <v>183.0346582038013</v>
       </c>
       <c r="D58" t="n">
-        <v>179.731744414292</v>
+        <v>180.1158798207228</v>
       </c>
       <c r="E58" t="n">
-        <v>180.9017463432922</v>
+        <v>181.2883823606641</v>
       </c>
       <c r="F58" t="n">
         <v>7906696</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>179.8562164306641</v>
+        <v>180.2406005859375</v>
       </c>
       <c r="C59" t="n">
-        <v>181.2253640989944</v>
+        <v>181.6126743620242</v>
       </c>
       <c r="D59" t="n">
-        <v>178.8355851554463</v>
+        <v>179.217788043381</v>
       </c>
       <c r="E59" t="n">
-        <v>180.1051523703605</v>
+        <v>180.490068545226</v>
       </c>
       <c r="F59" t="n">
         <v>6227714</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>177.3419647216797</v>
+        <v>177.7209930419922</v>
       </c>
       <c r="C60" t="n">
-        <v>181.2502467141526</v>
+        <v>181.6376281028505</v>
       </c>
       <c r="D60" t="n">
-        <v>176.9436581126298</v>
+        <v>177.3218351426951</v>
       </c>
       <c r="E60" t="n">
-        <v>180.7274873324639</v>
+        <v>181.1137514412744</v>
       </c>
       <c r="F60" t="n">
         <v>7813096</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>178.7608947753906</v>
+        <v>179.1429443359375</v>
       </c>
       <c r="C61" t="n">
-        <v>179.6072830600025</v>
+        <v>179.9911415300012</v>
       </c>
       <c r="D61" t="n">
-        <v>176.7445197125457</v>
+        <v>177.1222598562729</v>
       </c>
       <c r="E61" t="n">
-        <v>178.2381353720884</v>
+        <v>178.6190676860442</v>
       </c>
       <c r="F61" t="n">
         <v>8823840</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>181.8477020263672</v>
+        <v>182.2363586425781</v>
       </c>
       <c r="C62" t="n">
-        <v>182.0966379634327</v>
+        <v>182.485826621555</v>
       </c>
       <c r="D62" t="n">
-        <v>179.881102046012</v>
+        <v>180.2655555181343</v>
       </c>
       <c r="E62" t="n">
-        <v>180.901748504287</v>
+        <v>181.2883833677296</v>
       </c>
       <c r="F62" t="n">
         <v>7914212</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>183.1919555664062</v>
+        <v>183.5834808349609</v>
       </c>
       <c r="C63" t="n">
-        <v>183.4159887853904</v>
+        <v>183.8079928668163</v>
       </c>
       <c r="D63" t="n">
-        <v>181.7979052527397</v>
+        <v>182.186451100491</v>
       </c>
       <c r="E63" t="n">
-        <v>183.1919555664062</v>
+        <v>183.5834808349609</v>
       </c>
       <c r="F63" t="n">
         <v>4053500</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>184.0881195068359</v>
+        <v>184.4815673828125</v>
       </c>
       <c r="C64" t="n">
-        <v>185.1585409628332</v>
+        <v>185.554276629295</v>
       </c>
       <c r="D64" t="n">
-        <v>182.8185523463951</v>
+        <v>183.2092868017336</v>
       </c>
       <c r="E64" t="n">
-        <v>184.0632319914717</v>
+        <v>184.4566266758568</v>
       </c>
       <c r="F64" t="n">
         <v>6443110</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>182.5447235107422</v>
+        <v>182.9348602294922</v>
       </c>
       <c r="C65" t="n">
-        <v>184.4366457891601</v>
+        <v>184.8308259463378</v>
       </c>
       <c r="D65" t="n">
-        <v>182.1464320804669</v>
+        <v>182.5357175661124</v>
       </c>
       <c r="E65" t="n">
-        <v>183.7147254787115</v>
+        <v>184.1073627393557</v>
       </c>
       <c r="F65" t="n">
         <v>6429614</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>185.8555603027344</v>
+        <v>186.2527770996094</v>
       </c>
       <c r="C66" t="n">
-        <v>186.4032223905743</v>
+        <v>186.8016096694083</v>
       </c>
       <c r="D66" t="n">
-        <v>183.0176998011258</v>
+        <v>183.4088514264418</v>
       </c>
       <c r="E66" t="n">
-        <v>183.2168455074739</v>
+        <v>183.608422753737</v>
       </c>
       <c r="F66" t="n">
         <v>5624940</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>184.3370666503906</v>
+        <v>184.7310333251953</v>
       </c>
       <c r="C67" t="n">
-        <v>186.6272803754304</v>
+        <v>187.0261417135941</v>
       </c>
       <c r="D67" t="n">
-        <v>183.5155810734319</v>
+        <v>183.9077920625948</v>
       </c>
       <c r="E67" t="n">
-        <v>185.9551502874298</v>
+        <v>186.3525751437149</v>
       </c>
       <c r="F67" t="n">
         <v>6784354</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>185.2830200195312</v>
+        <v>185.6790008544922</v>
       </c>
       <c r="C68" t="n">
-        <v>185.9302625900251</v>
+        <v>186.3276266907243</v>
       </c>
       <c r="D68" t="n">
-        <v>183.8889848111271</v>
+        <v>184.2819863594501</v>
       </c>
       <c r="E68" t="n">
-        <v>184.5113246709226</v>
+        <v>184.9056562637218</v>
       </c>
       <c r="F68" t="n">
         <v>5578210</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>183.3662109375</v>
+        <v>183.7581024169922</v>
       </c>
       <c r="C69" t="n">
-        <v>184.1628089999562</v>
+        <v>184.5564029740992</v>
       </c>
       <c r="D69" t="n">
-        <v>182.2211116684871</v>
+        <v>182.6105558342436</v>
       </c>
       <c r="E69" t="n">
-        <v>184.1628089999562</v>
+        <v>184.5564029740992</v>
       </c>
       <c r="F69" t="n">
         <v>6724634</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>179.906005859375</v>
+        <v>180.2904968261719</v>
       </c>
       <c r="C70" t="n">
-        <v>180.2047320244544</v>
+        <v>180.5898614219222</v>
       </c>
       <c r="D70" t="n">
-        <v>175.2509007689315</v>
+        <v>175.6254429524834</v>
       </c>
       <c r="E70" t="n">
-        <v>179.2089882700855</v>
+        <v>179.5919895869649</v>
       </c>
       <c r="F70" t="n">
         <v>13603290</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>183.1670532226562</v>
+        <v>183.5585327148438</v>
       </c>
       <c r="C71" t="n">
-        <v>183.6649250798496</v>
+        <v>184.0574686641781</v>
       </c>
       <c r="D71" t="n">
-        <v>178.8604646967026</v>
+        <v>179.242739798365</v>
       </c>
       <c r="E71" t="n">
-        <v>180.9515325744519</v>
+        <v>181.338276876096</v>
       </c>
       <c r="F71" t="n">
         <v>8024898</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>179.6321716308594</v>
+        <v>180.0160827636719</v>
       </c>
       <c r="C72" t="n">
-        <v>183.1670650846216</v>
+        <v>183.5585310164319</v>
       </c>
       <c r="D72" t="n">
-        <v>179.433025913854</v>
+        <v>179.8165114310481</v>
       </c>
       <c r="E72" t="n">
-        <v>183.1670650846216</v>
+        <v>183.5585310164319</v>
       </c>
       <c r="F72" t="n">
         <v>7475944</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>180.6528167724609</v>
+        <v>181.0389099121094</v>
       </c>
       <c r="C73" t="n">
-        <v>181.0760109140922</v>
+        <v>181.4630085088039</v>
       </c>
       <c r="D73" t="n">
-        <v>178.7360069736681</v>
+        <v>179.118003486834</v>
       </c>
       <c r="E73" t="n">
-        <v>179.4828148022489</v>
+        <v>179.8664074011244</v>
       </c>
       <c r="F73" t="n">
         <v>4423266</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>183.2417449951172</v>
+        <v>183.6333618164062</v>
       </c>
       <c r="C74" t="n">
-        <v>183.565373882151</v>
+        <v>183.9576823499643</v>
       </c>
       <c r="D74" t="n">
-        <v>181.0511116944765</v>
+        <v>181.4380467831733</v>
       </c>
       <c r="E74" t="n">
-        <v>181.2751601249085</v>
+        <v>181.6625740408187</v>
       </c>
       <c r="F74" t="n">
         <v>5299988</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>188.1706848144531</v>
+        <v>188.5728454589844</v>
       </c>
       <c r="C75" t="n">
-        <v>188.4942985005923</v>
+        <v>188.8971507761751</v>
       </c>
       <c r="D75" t="n">
-        <v>184.4864207142708</v>
+        <v>184.8807073053776</v>
       </c>
       <c r="E75" t="n">
-        <v>186.7019566777174</v>
+        <v>187.1009783388587</v>
       </c>
       <c r="F75" t="n">
         <v>17779044</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>187.0255737304688</v>
+        <v>187.4252777099609</v>
       </c>
       <c r="C76" t="n">
-        <v>188.6436573841358</v>
+        <v>189.0468194707875</v>
       </c>
       <c r="D76" t="n">
-        <v>186.2538783731807</v>
+        <v>186.6519331145547</v>
       </c>
       <c r="E76" t="n">
-        <v>188.2951561750372</v>
+        <v>188.6975734580914</v>
       </c>
       <c r="F76" t="n">
         <v>7528552</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>186.4779052734375</v>
+        <v>186.8764495849609</v>
       </c>
       <c r="C77" t="n">
-        <v>188.0213111294217</v>
+        <v>188.4231540388319</v>
       </c>
       <c r="D77" t="n">
-        <v>185.905355654207</v>
+        <v>186.3026763012246</v>
       </c>
       <c r="E77" t="n">
-        <v>188.0213111294217</v>
+        <v>188.4231540388319</v>
       </c>
       <c r="F77" t="n">
         <v>7008146</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>186.4032287597656</v>
+        <v>186.8016052246094</v>
       </c>
       <c r="C78" t="n">
-        <v>187.4985529728715</v>
+        <v>187.8992703380891</v>
       </c>
       <c r="D78" t="n">
-        <v>185.2332268034579</v>
+        <v>185.6291027684643</v>
       </c>
       <c r="E78" t="n">
-        <v>187.3989725193732</v>
+        <v>187.7994770636579</v>
       </c>
       <c r="F78" t="n">
         <v>8491700</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>191.6806793212891</v>
+        <v>192.09033203125</v>
       </c>
       <c r="C79" t="n">
-        <v>193.1742950043121</v>
+        <v>193.5871398133117</v>
       </c>
       <c r="D79" t="n">
-        <v>189.191319849584</v>
+        <v>189.5956523944805</v>
       </c>
       <c r="E79" t="n">
-        <v>189.191319849584</v>
+        <v>189.5956523944805</v>
       </c>
       <c r="F79" t="n">
         <v>27709406</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>193.3485412597656</v>
+        <v>193.7617797851562</v>
       </c>
       <c r="C80" t="n">
-        <v>195.2404482638293</v>
+        <v>195.6577303100836</v>
       </c>
       <c r="D80" t="n">
-        <v>192.900459621313</v>
+        <v>193.3127404741279</v>
       </c>
       <c r="E80" t="n">
-        <v>193.6721549323235</v>
+        <v>194.0860851083258</v>
       </c>
       <c r="F80" t="n">
         <v>9746608</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>191.73046875</v>
+        <v>192.1402282714844</v>
       </c>
       <c r="C81" t="n">
-        <v>193.3485523998611</v>
+        <v>193.7617700320277</v>
       </c>
       <c r="D81" t="n">
-        <v>190.2119503622853</v>
+        <v>190.6184645604156</v>
       </c>
       <c r="E81" t="n">
-        <v>193.3485523998611</v>
+        <v>193.7617700320277</v>
       </c>
       <c r="F81" t="n">
         <v>4828488</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>191.033447265625</v>
+        <v>191.4417266845703</v>
       </c>
       <c r="C82" t="n">
-        <v>192.2532242606316</v>
+        <v>192.6641106044369</v>
       </c>
       <c r="D82" t="n">
-        <v>190.7098183871402</v>
+        <v>191.1174061418123</v>
       </c>
       <c r="E82" t="n">
-        <v>191.5562066643644</v>
+        <v>191.9656033321822</v>
       </c>
       <c r="F82" t="n">
         <v>6253358</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>188.8925933837891</v>
+        <v>189.2962951660156</v>
       </c>
       <c r="C83" t="n">
-        <v>191.3819528516667</v>
+        <v>191.7909748999545</v>
       </c>
       <c r="D83" t="n">
-        <v>188.6934476651277</v>
+        <v>189.0967238325639</v>
       </c>
       <c r="E83" t="n">
-        <v>190.560467266036</v>
+        <v>190.967733633018</v>
       </c>
       <c r="F83" t="n">
         <v>7902194</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>189.3655700683594</v>
+        <v>189.7702941894531</v>
       </c>
       <c r="C84" t="n">
-        <v>190.6849274939745</v>
+        <v>191.0924714295377</v>
       </c>
       <c r="D84" t="n">
-        <v>188.9921661633451</v>
+        <v>189.3960922219018</v>
       </c>
       <c r="E84" t="n">
-        <v>189.6891837472697</v>
+        <v>190.0945995160675</v>
       </c>
       <c r="F84" t="n">
         <v>9613544</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>190.3364105224609</v>
+        <v>190.7432098388672</v>
       </c>
       <c r="C85" t="n">
-        <v>190.9089753301386</v>
+        <v>191.3169983691722</v>
       </c>
       <c r="D85" t="n">
-        <v>189.216198810847</v>
+        <v>189.620603938158</v>
       </c>
       <c r="E85" t="n">
-        <v>190.4359909743641</v>
+        <v>190.8430031205681</v>
       </c>
       <c r="F85" t="n">
         <v>5716698</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>191.0583343505859</v>
+        <v>191.4666595458984</v>
       </c>
       <c r="C86" t="n">
-        <v>191.4566257778834</v>
+        <v>191.8658021918847</v>
       </c>
       <c r="D86" t="n">
-        <v>190.1870585587592</v>
+        <v>190.5935216847771</v>
       </c>
       <c r="E86" t="n">
-        <v>191.1828023208469</v>
+        <v>191.5913935260586</v>
       </c>
       <c r="F86" t="n">
         <v>3670402</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>191.5064086914062</v>
+        <v>191.9157104492188</v>
       </c>
       <c r="C87" t="n">
-        <v>192.6017328654115</v>
+        <v>193.0133756316157</v>
       </c>
       <c r="D87" t="n">
-        <v>190.7347133827958</v>
+        <v>191.1423658159279</v>
       </c>
       <c r="E87" t="n">
-        <v>192.0291832628448</v>
+        <v>192.4396023334014</v>
       </c>
       <c r="F87" t="n">
         <v>4049964</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>190.8094024658203</v>
+        <v>191.2171936035156</v>
       </c>
       <c r="C88" t="n">
-        <v>191.8051462490731</v>
+        <v>192.2150654553278</v>
       </c>
       <c r="D88" t="n">
-        <v>189.9630141725177</v>
+        <v>190.3689964389488</v>
       </c>
       <c r="E88" t="n">
-        <v>191.4815325582848</v>
+        <v>191.8907601487521</v>
       </c>
       <c r="F88" t="n">
         <v>4580358</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>192.0540771484375</v>
+        <v>192.4645385742188</v>
       </c>
       <c r="C89" t="n">
-        <v>192.6764169966178</v>
+        <v>193.0882084983089</v>
       </c>
       <c r="D89" t="n">
-        <v>190.4359935431688</v>
+        <v>190.8429967715844</v>
       </c>
       <c r="E89" t="n">
-        <v>190.8093974520769</v>
+        <v>191.2171987260384</v>
       </c>
       <c r="F89" t="n">
         <v>5089694</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>192.6515350341797</v>
+        <v>193.0632629394531</v>
       </c>
       <c r="C90" t="n">
-        <v>193.5725858809643</v>
+        <v>193.9862822228543</v>
       </c>
       <c r="D90" t="n">
-        <v>192.4274866048381</v>
+        <v>192.8387356818973</v>
       </c>
       <c r="E90" t="n">
-        <v>192.9253584977355</v>
+        <v>193.3376716086293</v>
       </c>
       <c r="F90" t="n">
         <v>4059352</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>190.3364105224609</v>
+        <v>190.7432098388672</v>
       </c>
       <c r="C91" t="n">
-        <v>192.8506725915006</v>
+        <v>193.2628455518048</v>
       </c>
       <c r="D91" t="n">
-        <v>189.8634413605302</v>
+        <v>190.2692298165802</v>
       </c>
       <c r="E91" t="n">
-        <v>192.2781229776667</v>
+        <v>192.6890722478168</v>
       </c>
       <c r="F91" t="n">
         <v>5376102</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>190.4857788085938</v>
+        <v>190.8928985595703</v>
       </c>
       <c r="C92" t="n">
-        <v>191.854926438931</v>
+        <v>192.2649724295764</v>
       </c>
       <c r="D92" t="n">
-        <v>190.311520616873</v>
+        <v>190.7182679308516</v>
       </c>
       <c r="E92" t="n">
-        <v>191.7802486978631</v>
+        <v>192.1901350819304</v>
       </c>
       <c r="F92" t="n">
         <v>4237016</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>192.2781219482422</v>
+        <v>192.6890716552734</v>
       </c>
       <c r="C93" t="n">
-        <v>193.273865686568</v>
+        <v>193.6869435639464</v>
       </c>
       <c r="D93" t="n">
-        <v>190.9338618239649</v>
+        <v>191.3419384880382</v>
       </c>
       <c r="E93" t="n">
-        <v>191.5810891763392</v>
+        <v>191.9905491381488</v>
       </c>
       <c r="F93" t="n">
         <v>7281582</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>197.0327911376953</v>
+        <v>197.4539031982422</v>
       </c>
       <c r="C94" t="n">
-        <v>197.4559852629253</v>
+        <v>197.8780018031228</v>
       </c>
       <c r="D94" t="n">
-        <v>191.8798142814278</v>
+        <v>192.2899130446988</v>
       </c>
       <c r="E94" t="n">
-        <v>192.427476373264</v>
+        <v>192.8387456377021</v>
       </c>
       <c r="F94" t="n">
         <v>12197390</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>197.9787445068359</v>
+        <v>198.4018707275391</v>
       </c>
       <c r="C95" t="n">
-        <v>200.194280388417</v>
+        <v>200.6221417200874</v>
       </c>
       <c r="D95" t="n">
-        <v>197.1821464823437</v>
+        <v>197.603570189414</v>
       </c>
       <c r="E95" t="n">
-        <v>197.6551308326545</v>
+        <v>198.0775654163272</v>
       </c>
       <c r="F95" t="n">
         <v>12725634</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>198.9993896484375</v>
+        <v>199.4246978759766</v>
       </c>
       <c r="C96" t="n">
-        <v>199.3727935455558</v>
+        <v>199.7988998245357</v>
       </c>
       <c r="D96" t="n">
-        <v>195.8379002807341</v>
+        <v>196.2564516662459</v>
       </c>
       <c r="E96" t="n">
-        <v>196.4104498842134</v>
+        <v>196.8302249421067</v>
       </c>
       <c r="F96" t="n">
         <v>8256974</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>196.2113037109375</v>
+        <v>196.6306610107422</v>
       </c>
       <c r="C97" t="n">
-        <v>198.6508727942029</v>
+        <v>199.0754441213551</v>
       </c>
       <c r="D97" t="n">
-        <v>195.4893834340227</v>
+        <v>195.9071977924561</v>
       </c>
       <c r="E97" t="n">
-        <v>198.6508727942029</v>
+        <v>199.0754441213551</v>
       </c>
       <c r="F97" t="n">
         <v>13605054</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>199.9951324462891</v>
+        <v>200.4225769042969</v>
       </c>
       <c r="C98" t="n">
-        <v>200.4183113726518</v>
+        <v>200.846660280106</v>
       </c>
       <c r="D98" t="n">
-        <v>196.6593849033033</v>
+        <v>197.0796999537944</v>
       </c>
       <c r="E98" t="n">
-        <v>196.7340626436118</v>
+        <v>197.1545373009185</v>
       </c>
       <c r="F98" t="n">
         <v>7926180</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>199.0491638183594</v>
+        <v>199.4745788574219</v>
       </c>
       <c r="C99" t="n">
-        <v>202.1359754320512</v>
+        <v>202.5679877160256</v>
       </c>
       <c r="D99" t="n">
-        <v>198.8251305973639</v>
+        <v>199.2500668245608</v>
       </c>
       <c r="E99" t="n">
-        <v>201.140231710711</v>
+        <v>201.5701158553555</v>
       </c>
       <c r="F99" t="n">
         <v>7959308</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>200.3934326171875</v>
+        <v>200.8217163085938</v>
       </c>
       <c r="C100" t="n">
-        <v>201.0655626970326</v>
+        <v>201.4952828743952</v>
       </c>
       <c r="D100" t="n">
-        <v>198.874929453775</v>
+        <v>199.2999677786453</v>
       </c>
       <c r="E100" t="n">
-        <v>199.1487529114907</v>
+        <v>199.5743764557454</v>
       </c>
       <c r="F100" t="n">
         <v>7378972</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>200.9659729003906</v>
+        <v>201.3954925537109</v>
       </c>
       <c r="C101" t="n">
-        <v>201.5385224996253</v>
+        <v>201.9692658491854</v>
       </c>
       <c r="D101" t="n">
-        <v>199.3976795828894</v>
+        <v>199.8238473613011</v>
       </c>
       <c r="E101" t="n">
-        <v>200.020019406806</v>
+        <v>200.4475172968857</v>
       </c>
       <c r="F101" t="n">
         <v>11783582</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>202.7085266113281</v>
+        <v>203.1417694091797</v>
       </c>
       <c r="C102" t="n">
-        <v>203.1317207349613</v>
+        <v>203.5658680128031</v>
       </c>
       <c r="D102" t="n">
-        <v>201.1651207924654</v>
+        <v>201.5950649157798</v>
       </c>
       <c r="E102" t="n">
-        <v>201.6381051413219</v>
+        <v>202.0690601597678</v>
       </c>
       <c r="F102" t="n">
         <v>7065484</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>201.6132202148438</v>
+        <v>202.0441131591797</v>
       </c>
       <c r="C103" t="n">
-        <v>204.0278866338296</v>
+        <v>204.463940265157</v>
       </c>
       <c r="D103" t="n">
-        <v>201.1402358599129</v>
+        <v>201.5701179299564</v>
       </c>
       <c r="E103" t="n">
-        <v>203.4802397308702</v>
+        <v>203.9151229171929</v>
       </c>
       <c r="F103" t="n">
         <v>6320754</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>201.2398223876953</v>
+        <v>201.6699066162109</v>
       </c>
       <c r="C104" t="n">
-        <v>204.003005277306</v>
+        <v>204.4389949045008</v>
       </c>
       <c r="D104" t="n">
-        <v>200.990886444709</v>
+        <v>201.4204386541554</v>
       </c>
       <c r="E104" t="n">
-        <v>203.5798111354604</v>
+        <v>204.0148963237432</v>
       </c>
       <c r="F104" t="n">
         <v>7252860</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>199.1238555908203</v>
+        <v>199.5494384765625</v>
       </c>
       <c r="C105" t="n">
-        <v>200.8166168684541</v>
+        <v>201.2458176543583</v>
       </c>
       <c r="D105" t="n">
-        <v>196.9332072615778</v>
+        <v>197.3541081244913</v>
       </c>
       <c r="E105" t="n">
-        <v>200.8166168684541</v>
+        <v>201.2458176543583</v>
       </c>
       <c r="F105" t="n">
         <v>13707400</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>200.5427856445312</v>
+        <v>200.9713897705078</v>
       </c>
       <c r="C106" t="n">
-        <v>200.9410922617751</v>
+        <v>201.3705476567665</v>
       </c>
       <c r="D106" t="n">
-        <v>199.6466223449592</v>
+        <v>200.0733111724796</v>
       </c>
       <c r="E106" t="n">
-        <v>200.3436399328312</v>
+        <v>200.7718184405367</v>
       </c>
       <c r="F106" t="n">
         <v>8215860</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>198.9246978759766</v>
+        <v>199.349853515625</v>
       </c>
       <c r="C107" t="n">
-        <v>201.5136376553242</v>
+        <v>201.9443265563507</v>
       </c>
       <c r="D107" t="n">
-        <v>198.5264064609278</v>
+        <v>198.9507108445827</v>
       </c>
       <c r="E107" t="n">
-        <v>201.1900239813666</v>
+        <v>201.6200212328392</v>
       </c>
       <c r="F107" t="n">
         <v>10615052</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>197.8044891357422</v>
+        <v>198.2272491455078</v>
       </c>
       <c r="C108" t="n">
-        <v>199.3230074652388</v>
+        <v>199.7490129464626</v>
       </c>
       <c r="D108" t="n">
-        <v>197.1821492942707</v>
+        <v>197.6035792007682</v>
       </c>
       <c r="E108" t="n">
-        <v>198.8749258181481</v>
+        <v>199.2999736315135</v>
       </c>
       <c r="F108" t="n">
         <v>12018232</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>196.9581146240234</v>
+        <v>197.3790588378906</v>
       </c>
       <c r="C109" t="n">
-        <v>199.0491673597346</v>
+        <v>199.4745806281095</v>
       </c>
       <c r="D109" t="n">
-        <v>196.4602427544955</v>
+        <v>196.8801229031266</v>
       </c>
       <c r="E109" t="n">
-        <v>199.0491673597346</v>
+        <v>199.4745806281095</v>
       </c>
       <c r="F109" t="n">
         <v>11973622</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>196.9332122802734</v>
+        <v>197.3541107177734</v>
       </c>
       <c r="C110" t="n">
-        <v>198.4019403756482</v>
+        <v>198.8259778741187</v>
       </c>
       <c r="D110" t="n">
-        <v>196.4104528938349</v>
+        <v>196.8302340560598</v>
       </c>
       <c r="E110" t="n">
-        <v>198.1281169244364</v>
+        <v>198.5515691896624</v>
       </c>
       <c r="F110" t="n">
         <v>13016186</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>197.3813171386719</v>
+        <v>197.8031616210938</v>
       </c>
       <c r="C111" t="n">
-        <v>197.7298183458431</v>
+        <v>198.1524076470427</v>
       </c>
       <c r="D111" t="n">
-        <v>195.5142975486119</v>
+        <v>195.9321518260638</v>
       </c>
       <c r="E111" t="n">
-        <v>197.306624199994</v>
+        <v>197.7283090482392</v>
       </c>
       <c r="F111" t="n">
         <v>18512564</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>193.6472778320312</v>
+        <v>194.0611419677734</v>
       </c>
       <c r="C112" t="n">
-        <v>197.8791889000688</v>
+        <v>198.3020975017922</v>
       </c>
       <c r="D112" t="n">
-        <v>193.2987614312434</v>
+        <v>193.7118807156217</v>
       </c>
       <c r="E112" t="n">
-        <v>197.7049306996749</v>
+        <v>198.1274668757163</v>
       </c>
       <c r="F112" t="n">
         <v>28702320</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>189.8385467529297</v>
+        <v>190.2442626953125</v>
       </c>
       <c r="C113" t="n">
-        <v>193.4979082058185</v>
+        <v>193.9114448005703</v>
       </c>
       <c r="D113" t="n">
-        <v>188.7681252215818</v>
+        <v>189.1715534985365</v>
       </c>
       <c r="E113" t="n">
-        <v>191.9545022985092</v>
+        <v>192.3647403830644</v>
       </c>
       <c r="F113" t="n">
         <v>41110648</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>189.2659912109375</v>
+        <v>189.6704864501953</v>
       </c>
       <c r="C114" t="n">
-        <v>190.1870572231693</v>
+        <v>190.5935209450615</v>
       </c>
       <c r="D114" t="n">
-        <v>187.747488061955</v>
+        <v>188.1487379886734</v>
       </c>
       <c r="E114" t="n">
-        <v>190.1870572231693</v>
+        <v>190.5935209450615</v>
       </c>
       <c r="F114" t="n">
         <v>10629440</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>190.4359893798828</v>
+        <v>190.8430023193359</v>
       </c>
       <c r="C115" t="n">
-        <v>191.6557815331868</v>
+        <v>192.065401496614</v>
       </c>
       <c r="D115" t="n">
-        <v>189.4900358700979</v>
+        <v>189.8950270524248</v>
       </c>
       <c r="E115" t="n">
-        <v>190.0874729949835</v>
+        <v>190.4937410611659</v>
       </c>
       <c r="F115" t="n">
         <v>11802658</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>191.9296112060547</v>
+        <v>192.3397979736328</v>
       </c>
       <c r="C116" t="n">
-        <v>192.8008870027099</v>
+        <v>193.2129358373263</v>
       </c>
       <c r="D116" t="n">
-        <v>190.7347217236963</v>
+        <v>191.1423548058306</v>
       </c>
       <c r="E116" t="n">
-        <v>191.307271351301</v>
+        <v>191.7161280709946</v>
       </c>
       <c r="F116" t="n">
         <v>8829264</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>190.3364105224609</v>
+        <v>190.7432098388672</v>
       </c>
       <c r="C117" t="n">
-        <v>192.1785425257635</v>
+        <v>192.5892789661158</v>
       </c>
       <c r="D117" t="n">
-        <v>189.9879093284873</v>
+        <v>190.3939638055479</v>
       </c>
       <c r="E117" t="n">
-        <v>192.1785425257635</v>
+        <v>192.5892789661158</v>
       </c>
       <c r="F117" t="n">
         <v>9356174</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>189.1664276123047</v>
+        <v>189.5707092285156</v>
       </c>
       <c r="C118" t="n">
-        <v>190.6849307746171</v>
+        <v>191.0924576966703</v>
       </c>
       <c r="D118" t="n">
-        <v>188.2453615919875</v>
+        <v>188.6476747296262</v>
       </c>
       <c r="E118" t="n">
-        <v>190.3364143797369</v>
+        <v>190.7431964615286</v>
       </c>
       <c r="F118" t="n">
         <v>6470406</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>189.6393890380859</v>
+        <v>190.0446929931641</v>
       </c>
       <c r="C119" t="n">
-        <v>190.1372608996687</v>
+        <v>190.5436289239554</v>
       </c>
       <c r="D119" t="n">
-        <v>188.7183230553892</v>
+        <v>189.1216584759368</v>
       </c>
       <c r="E119" t="n">
-        <v>189.1913074014302</v>
+        <v>189.5956537007151</v>
       </c>
       <c r="F119" t="n">
         <v>4100400</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>190.4857788085938</v>
+        <v>190.8928985595703</v>
       </c>
       <c r="C120" t="n">
-        <v>191.3072643480274</v>
+        <v>191.7161398363106</v>
       </c>
       <c r="D120" t="n">
-        <v>189.9381167176901</v>
+        <v>190.3440659663045</v>
       </c>
       <c r="E120" t="n">
-        <v>191.3072643480274</v>
+        <v>191.7161398363106</v>
       </c>
       <c r="F120" t="n">
         <v>5880750</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>190.0377044677734</v>
+        <v>190.44384765625</v>
       </c>
       <c r="C121" t="n">
-        <v>191.0583357538721</v>
+        <v>191.4666602065665</v>
       </c>
       <c r="D121" t="n">
-        <v>189.5896076164676</v>
+        <v>189.994793145071</v>
       </c>
       <c r="E121" t="n">
-        <v>191.0583357538721</v>
+        <v>191.4666602065665</v>
       </c>
       <c r="F121" t="n">
         <v>7140112</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>193.7468414306641</v>
+        <v>194.1609191894531</v>
       </c>
       <c r="C122" t="n">
-        <v>194.0455676010831</v>
+        <v>194.4602838005415</v>
       </c>
       <c r="D122" t="n">
-        <v>190.6849323700188</v>
+        <v>191.0924661850094</v>
       </c>
       <c r="E122" t="n">
-        <v>191.6806761421859</v>
+        <v>192.090338071093</v>
       </c>
       <c r="F122" t="n">
         <v>9070810</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>194.9666290283203</v>
+        <v>195.3833160400391</v>
       </c>
       <c r="C123" t="n">
-        <v>196.1117282617531</v>
+        <v>196.5308626049976</v>
       </c>
       <c r="D123" t="n">
-        <v>193.9210950534482</v>
+        <v>194.3355475267241</v>
       </c>
       <c r="E123" t="n">
-        <v>196.1117282617531</v>
+        <v>196.5308626049976</v>
       </c>
       <c r="F123" t="n">
         <v>9036924</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>197.1323699951172</v>
+        <v>197.5536956787109</v>
       </c>
       <c r="C124" t="n">
-        <v>197.8293875637096</v>
+        <v>198.2522029641041</v>
       </c>
       <c r="D124" t="n">
-        <v>195.6636419234976</v>
+        <v>196.0818285343008</v>
       </c>
       <c r="E124" t="n">
-        <v>196.0370458202981</v>
+        <v>196.4560304971525</v>
       </c>
       <c r="F124" t="n">
         <v>12617234</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>196.1117248535156</v>
+        <v>196.5308685302734</v>
       </c>
       <c r="C125" t="n">
-        <v>196.8585326520392</v>
+        <v>197.2792724585885</v>
       </c>
       <c r="D125" t="n">
-        <v>195.0910936064042</v>
+        <v>195.5080559187696</v>
       </c>
       <c r="E125" t="n">
-        <v>196.2113053041895</v>
+        <v>196.6306618112422</v>
       </c>
       <c r="F125" t="n">
         <v>12366958</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>197.2568359375</v>
+        <v>197.6784210205078</v>
       </c>
       <c r="C126" t="n">
-        <v>197.6302398304707</v>
+        <v>198.0526229669931</v>
       </c>
       <c r="D126" t="n">
-        <v>195.7383176564467</v>
+        <v>196.1566573023444</v>
       </c>
       <c r="E126" t="n">
-        <v>196.4104477025625</v>
+        <v>196.8302238512813</v>
       </c>
       <c r="F126" t="n">
         <v>9037242</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>197.0825805664062</v>
+        <v>197.5037994384766</v>
       </c>
       <c r="C127" t="n">
-        <v>197.8791785882348</v>
+        <v>198.3021000061073</v>
       </c>
       <c r="D127" t="n">
-        <v>195.7632231644822</v>
+        <v>196.1816222123189</v>
       </c>
       <c r="E127" t="n">
-        <v>196.659386442887</v>
+        <v>197.0797008344555</v>
       </c>
       <c r="F127" t="n">
         <v>9065220</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>194.1451416015625</v>
+        <v>194.5600738525391</v>
       </c>
       <c r="C128" t="n">
-        <v>197.0825825930329</v>
+        <v>197.5037928223954</v>
       </c>
       <c r="D128" t="n">
-        <v>193.9957709243967</v>
+        <v>194.4103839363194</v>
       </c>
       <c r="E128" t="n">
-        <v>197.0825825930329</v>
+        <v>197.5037928223954</v>
       </c>
       <c r="F128" t="n">
         <v>5630400</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>195.1906585693359</v>
+        <v>195.6078338623047</v>
       </c>
       <c r="C129" t="n">
-        <v>195.5640624680355</v>
+        <v>195.9820358262497</v>
       </c>
       <c r="D129" t="n">
-        <v>193.0996058529246</v>
+        <v>193.512312000003</v>
       </c>
       <c r="E129" t="n">
-        <v>194.1700273237613</v>
+        <v>194.5850212513819</v>
       </c>
       <c r="F129" t="n">
         <v>9634838</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>195.0910949707031</v>
+        <v>195.508056640625</v>
       </c>
       <c r="C130" t="n">
-        <v>196.1366289347164</v>
+        <v>196.5558251893981</v>
       </c>
       <c r="D130" t="n">
-        <v>194.344287166957</v>
+        <v>194.7596527095467</v>
       </c>
       <c r="E130" t="n">
-        <v>196.111726224952</v>
+        <v>196.5308692559053</v>
       </c>
       <c r="F130" t="n">
         <v>6848220</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>196.3108673095703</v>
+        <v>196.7304382324219</v>
       </c>
       <c r="C131" t="n">
-        <v>198.4517254128521</v>
+        <v>198.8758719449015</v>
       </c>
       <c r="D131" t="n">
-        <v>194.7923642219271</v>
+        <v>195.2086896813432</v>
       </c>
       <c r="E131" t="n">
-        <v>195.0910903751575</v>
+        <v>195.508054295447</v>
       </c>
       <c r="F131" t="n">
         <v>13595726</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>201.6629943847656</v>
+        <v>202.093994140625</v>
       </c>
       <c r="C132" t="n">
-        <v>201.8870428032685</v>
+        <v>202.3185214016343</v>
       </c>
       <c r="D132" t="n">
-        <v>195.3400307671593</v>
+        <v>195.7575169094586</v>
       </c>
       <c r="E132" t="n">
-        <v>196.5349202135394</v>
+        <v>196.9549601067697</v>
       </c>
       <c r="F132" t="n">
         <v>31366784</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>206.7413024902344</v>
+        <v>207.1831512451172</v>
       </c>
       <c r="C133" t="n">
-        <v>211.5706659046903</v>
+        <v>212.0228360041029</v>
       </c>
       <c r="D133" t="n">
-        <v>202.0364070483795</v>
+        <v>202.4682004724319</v>
       </c>
       <c r="E133" t="n">
-        <v>202.6338593944019</v>
+        <v>203.0669296972009</v>
       </c>
       <c r="F133" t="n">
         <v>45759860</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>207.712158203125</v>
+        <v>208.1560821533203</v>
       </c>
       <c r="C134" t="n">
-        <v>209.2555489042081</v>
+        <v>209.7027714003462</v>
       </c>
       <c r="D134" t="n">
-        <v>205.2476862746245</v>
+        <v>205.6863431373123</v>
       </c>
       <c r="E134" t="n">
-        <v>208.110449636854</v>
+        <v>208.555224818427</v>
       </c>
       <c r="F134" t="n">
         <v>17769026</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>208.0855560302734</v>
+        <v>208.5302886962891</v>
       </c>
       <c r="C135" t="n">
-        <v>209.6040591700007</v>
+        <v>210.0520372700704</v>
       </c>
       <c r="D135" t="n">
-        <v>206.1936337908175</v>
+        <v>206.6343229295576</v>
       </c>
       <c r="E135" t="n">
-        <v>209.1061872954877</v>
+        <v>209.5531013145595</v>
       </c>
       <c r="F135" t="n">
         <v>10830990</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>207.9361877441406</v>
+        <v>208.3805847167969</v>
       </c>
       <c r="C136" t="n">
-        <v>209.1061897014772</v>
+        <v>209.5530871784155</v>
       </c>
       <c r="D136" t="n">
-        <v>206.4425721034158</v>
+        <v>206.8837769512368</v>
       </c>
       <c r="E136" t="n">
-        <v>208.3593818811148</v>
+        <v>208.8046832956354</v>
       </c>
       <c r="F136" t="n">
         <v>8255710</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>201.4887542724609</v>
+        <v>201.9193725585938</v>
       </c>
       <c r="C137" t="n">
-        <v>206.293214836561</v>
+        <v>206.7341011328434</v>
       </c>
       <c r="D137" t="n">
-        <v>199.6466222539271</v>
+        <v>200.0733035673215</v>
       </c>
       <c r="E137" t="n">
-        <v>201.6381097577069</v>
+        <v>202.0690472438035</v>
       </c>
       <c r="F137" t="n">
         <v>23514212</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>201.1651306152344</v>
+        <v>201.5950622558594</v>
       </c>
       <c r="C138" t="n">
-        <v>203.1317306537582</v>
+        <v>203.5658653268791</v>
       </c>
       <c r="D138" t="n">
-        <v>200.8913071539006</v>
+        <v>201.3206535769503</v>
       </c>
       <c r="E138" t="n">
-        <v>202.2853423651632</v>
+        <v>202.7176681308238</v>
       </c>
       <c r="F138" t="n">
         <v>6808460</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>199.347900390625</v>
+        <v>199.7739410400391</v>
       </c>
       <c r="C139" t="n">
-        <v>201.8870500514965</v>
+        <v>202.318517299176</v>
       </c>
       <c r="D139" t="n">
-        <v>199.1487546747191</v>
+        <v>199.5743697155867</v>
       </c>
       <c r="E139" t="n">
-        <v>201.8870500514965</v>
+        <v>202.318517299176</v>
       </c>
       <c r="F139" t="n">
         <v>6458200</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>200.5178985595703</v>
+        <v>200.9464416503906</v>
       </c>
       <c r="C140" t="n">
-        <v>200.9410926939955</v>
+        <v>201.3705402273803</v>
       </c>
       <c r="D140" t="n">
-        <v>199.8457684865236</v>
+        <v>200.2728751135619</v>
       </c>
       <c r="E140" t="n">
-        <v>200.8913024675025</v>
+        <v>201.3206435901493</v>
       </c>
       <c r="F140" t="n">
         <v>5329662</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>199.1238555908203</v>
+        <v>199.5494384765625</v>
       </c>
       <c r="C141" t="n">
-        <v>202.4347004061918</v>
+        <v>202.8673594852237</v>
       </c>
       <c r="D141" t="n">
-        <v>198.6508712484058</v>
+        <v>199.0754432354751</v>
       </c>
       <c r="E141" t="n">
-        <v>201.140230537233</v>
+        <v>201.570122975268</v>
       </c>
       <c r="F141" t="n">
         <v>8948358</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>198.5264129638672</v>
+        <v>198.9506988525391</v>
       </c>
       <c r="C142" t="n">
-        <v>200.5676907190043</v>
+        <v>200.99633917754</v>
       </c>
       <c r="D142" t="n">
-        <v>197.4310887458393</v>
+        <v>197.8530337338607</v>
       </c>
       <c r="E142" t="n">
-        <v>199.671512215024</v>
+        <v>200.0982453823533</v>
       </c>
       <c r="F142" t="n">
         <v>6760060</v>
@@ -3281,16 +3281,16 @@
         <v>45138</v>
       </c>
       <c r="B143" t="n">
-        <v>201.6629943847656</v>
+        <v>202.093994140625</v>
       </c>
       <c r="C143" t="n">
-        <v>202.1359787376745</v>
+        <v>202.5679893688373</v>
       </c>
       <c r="D143" t="n">
-        <v>198.6259881400873</v>
+        <v>199.0504971218015</v>
       </c>
       <c r="E143" t="n">
-        <v>199.0242795575994</v>
+        <v>199.4496397787997</v>
       </c>
       <c r="F143" t="n">
         <v>6762180</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>202.6089630126953</v>
+        <v>203.0419921875</v>
       </c>
       <c r="C144" t="n">
-        <v>203.1317223972095</v>
+        <v>203.5658688476842</v>
       </c>
       <c r="D144" t="n">
-        <v>201.1651224386206</v>
+        <v>201.5950657425781</v>
       </c>
       <c r="E144" t="n">
-        <v>201.887042725658</v>
+        <v>202.318528965039</v>
       </c>
       <c r="F144" t="n">
         <v>7181804</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>200.5427856445312</v>
+        <v>200.9713897705078</v>
       </c>
       <c r="C145" t="n">
-        <v>202.0861914994331</v>
+        <v>202.5180942238377</v>
       </c>
       <c r="D145" t="n">
-        <v>198.6508785926153</v>
+        <v>199.0754392963077</v>
       </c>
       <c r="E145" t="n">
-        <v>202.0861914994331</v>
+        <v>202.5180942238377</v>
       </c>
       <c r="F145" t="n">
         <v>5399618</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>198.9744873046875</v>
+        <v>199.3997497558594</v>
       </c>
       <c r="C146" t="n">
-        <v>200.1444892232438</v>
+        <v>200.5722522858785</v>
       </c>
       <c r="D146" t="n">
-        <v>197.6800174201963</v>
+        <v>198.1025132381003</v>
       </c>
       <c r="E146" t="n">
-        <v>200.1444892232438</v>
+        <v>200.5722522858785</v>
       </c>
       <c r="F146" t="n">
         <v>6821698</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>203.5549163818359</v>
+        <v>203.9899597167969</v>
       </c>
       <c r="C147" t="n">
-        <v>204.1274659915802</v>
+        <v>204.5637329957901</v>
       </c>
       <c r="D147" t="n">
-        <v>199.2981027918029</v>
+        <v>199.7240483441437</v>
       </c>
       <c r="E147" t="n">
-        <v>199.5719414356588</v>
+        <v>199.9984722437083</v>
       </c>
       <c r="F147" t="n">
         <v>12481540</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>204.7000122070312</v>
+        <v>205.1375122070312</v>
       </c>
       <c r="C148" t="n">
-        <v>205.6210781868305</v>
+        <v>206.060546757139</v>
       </c>
       <c r="D148" t="n">
-        <v>203.1566064022113</v>
+        <v>203.5908077212179</v>
       </c>
       <c r="E148" t="n">
-        <v>204.1025750913174</v>
+        <v>204.5387982045439</v>
       </c>
       <c r="F148" t="n">
         <v>8822866</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>207.2889556884766</v>
+        <v>207.7319793701172</v>
       </c>
       <c r="C149" t="n">
-        <v>207.8615052990345</v>
+        <v>208.3057526495172</v>
       </c>
       <c r="D149" t="n">
-        <v>204.1025787657751</v>
+        <v>204.5387924346453</v>
       </c>
       <c r="E149" t="n">
-        <v>205.3223557284692</v>
+        <v>205.7611763383557</v>
       </c>
       <c r="F149" t="n">
         <v>15724284</v>
@@ -3421,16 +3421,16 @@
         <v>45147</v>
       </c>
       <c r="B150" t="n">
-        <v>208.0108642578125</v>
+        <v>208.4554290771484</v>
       </c>
       <c r="C150" t="n">
-        <v>208.3593806494591</v>
+        <v>208.8046903247295</v>
       </c>
       <c r="D150" t="n">
-        <v>205.3970369019949</v>
+        <v>205.8360153992396</v>
       </c>
       <c r="E150" t="n">
-        <v>206.8657650175633</v>
+        <v>207.3078825087817</v>
       </c>
       <c r="F150" t="n">
         <v>9309388</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>208.4340515136719</v>
+        <v>208.8795318603516</v>
       </c>
       <c r="C151" t="n">
-        <v>209.5044729757697</v>
+        <v>209.9522411047026</v>
       </c>
       <c r="D151" t="n">
-        <v>206.890645706212</v>
+        <v>207.3328273742488</v>
       </c>
       <c r="E151" t="n">
-        <v>207.6623562068636</v>
+        <v>208.1061872304586</v>
       </c>
       <c r="F151" t="n">
         <v>9901644</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>205.6459655761719</v>
+        <v>206.0854797363281</v>
       </c>
       <c r="C152" t="n">
-        <v>210.1766025383124</v>
+        <v>210.6257997432773</v>
       </c>
       <c r="D152" t="n">
-        <v>205.2974643906801</v>
+        <v>205.7362337212189</v>
       </c>
       <c r="E152" t="n">
-        <v>208.4340510293232</v>
+        <v>208.8795239887827</v>
       </c>
       <c r="F152" t="n">
         <v>7571468</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>206.6915130615234</v>
+        <v>207.1332550048828</v>
       </c>
       <c r="C153" t="n">
-        <v>207.2142876647753</v>
+        <v>207.6571468841454</v>
       </c>
       <c r="D153" t="n">
-        <v>203.8785399086347</v>
+        <v>204.3142699543174</v>
       </c>
       <c r="E153" t="n">
-        <v>205.7455595048676</v>
+        <v>206.1852797524338</v>
       </c>
       <c r="F153" t="n">
         <v>5792180</v>
@@ -3501,16 +3501,16 @@
         <v>45154</v>
       </c>
       <c r="B154" t="n">
-        <v>208.4340515136719</v>
+        <v>208.8795318603516</v>
       </c>
       <c r="C154" t="n">
-        <v>209.2057620143235</v>
+        <v>209.6528917165613</v>
       </c>
       <c r="D154" t="n">
-        <v>206.1189503994038</v>
+        <v>206.5594827443558</v>
       </c>
       <c r="E154" t="n">
-        <v>206.1936281397653</v>
+        <v>206.6343200913912</v>
       </c>
       <c r="F154" t="n">
         <v>8131780</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>207.8863983154297</v>
+        <v>208.3306884765625</v>
       </c>
       <c r="C155" t="n">
-        <v>209.3053362183344</v>
+        <v>209.752658901819</v>
       </c>
       <c r="D155" t="n">
-        <v>206.3678951524008</v>
+        <v>206.8089400025347</v>
       </c>
       <c r="E155" t="n">
-        <v>208.4340604245668</v>
+        <v>208.8795210369108</v>
       </c>
       <c r="F155" t="n">
         <v>6340960</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>204.9738616943359</v>
+        <v>205.4119262695312</v>
       </c>
       <c r="C156" t="n">
-        <v>207.2889629271681</v>
+        <v>207.7319752738973</v>
       </c>
       <c r="D156" t="n">
-        <v>203.1317296372448</v>
+        <v>203.5658572577944</v>
       </c>
       <c r="E156" t="n">
-        <v>206.641720358586</v>
+        <v>207.0833494360608</v>
       </c>
       <c r="F156" t="n">
         <v>10602392</v>
@@ -3561,16 +3561,16 @@
         <v>45159</v>
       </c>
       <c r="B157" t="n">
-        <v>206.4176788330078</v>
+        <v>206.8588409423828</v>
       </c>
       <c r="C157" t="n">
-        <v>207.786826465507</v>
+        <v>208.2309147586324</v>
       </c>
       <c r="D157" t="n">
-        <v>204.9489507496985</v>
+        <v>205.3869738489704</v>
       </c>
       <c r="E157" t="n">
-        <v>205.0236284908843</v>
+        <v>205.4618111936844</v>
       </c>
       <c r="F157" t="n">
         <v>7334260</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>207.6623687744141</v>
+        <v>208.1061859130859</v>
       </c>
       <c r="C158" t="n">
-        <v>208.160240665413</v>
+        <v>208.6051218585854</v>
       </c>
       <c r="D158" t="n">
-        <v>205.4966230097999</v>
+        <v>205.9358115049</v>
       </c>
       <c r="E158" t="n">
-        <v>206.6168347645475</v>
+        <v>207.0584173822737</v>
       </c>
       <c r="F158" t="n">
         <v>6350240</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>206.7413024902344</v>
+        <v>207.1831512451172</v>
       </c>
       <c r="C159" t="n">
-        <v>208.0855626718627</v>
+        <v>208.5302843876892</v>
       </c>
       <c r="D159" t="n">
-        <v>206.4176888002407</v>
+        <v>206.8588459259992</v>
       </c>
       <c r="E159" t="n">
-        <v>207.7370462710422</v>
+        <v>208.1810231355211</v>
       </c>
       <c r="F159" t="n">
         <v>6134234</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>205.4717254638672</v>
+        <v>205.9108734130859</v>
       </c>
       <c r="C160" t="n">
-        <v>209.1061840132263</v>
+        <v>209.5530997709592</v>
       </c>
       <c r="D160" t="n">
-        <v>205.123209079641</v>
+        <v>205.5616121562743</v>
       </c>
       <c r="E160" t="n">
-        <v>208.4838441798536</v>
+        <v>208.9294298311647</v>
       </c>
       <c r="F160" t="n">
         <v>5776956</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>203.9781188964844</v>
+        <v>204.4140625</v>
       </c>
       <c r="C161" t="n">
-        <v>204.7747017634014</v>
+        <v>205.2123478299429</v>
       </c>
       <c r="D161" t="n">
-        <v>202.6836489469778</v>
+        <v>203.1168259993678</v>
       </c>
       <c r="E161" t="n">
-        <v>204.1274743855703</v>
+        <v>204.5637371927851</v>
       </c>
       <c r="F161" t="n">
         <v>6598510</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>203.1566162109375</v>
+        <v>203.5908050537109</v>
       </c>
       <c r="C162" t="n">
-        <v>205.347264655853</v>
+        <v>205.7861353796843</v>
       </c>
       <c r="D162" t="n">
-        <v>202.9574704960845</v>
+        <v>203.3912337221633</v>
       </c>
       <c r="E162" t="n">
-        <v>204.8493927717984</v>
+        <v>205.287199437657</v>
       </c>
       <c r="F162" t="n">
         <v>3401974</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>203.1815185546875</v>
+        <v>203.6157531738281</v>
       </c>
       <c r="C163" t="n">
-        <v>205.0734256331423</v>
+        <v>205.5117035902572</v>
       </c>
       <c r="D163" t="n">
-        <v>202.6836466715316</v>
+        <v>203.1168172509451</v>
       </c>
       <c r="E163" t="n">
-        <v>203.9532138960415</v>
+        <v>204.3890977637704</v>
       </c>
       <c r="F163" t="n">
         <v>3998562</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>202.7334289550781</v>
+        <v>203.1667175292969</v>
       </c>
       <c r="C164" t="n">
-        <v>204.2270445460227</v>
+        <v>204.6635253247692</v>
       </c>
       <c r="D164" t="n">
-        <v>202.4595903137655</v>
+        <v>202.8922936310039</v>
       </c>
       <c r="E164" t="n">
-        <v>204.1274640957556</v>
+        <v>204.5637320478778</v>
       </c>
       <c r="F164" t="n">
         <v>4018182</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>203.3308715820312</v>
+        <v>203.7654266357422</v>
       </c>
       <c r="C165" t="n">
-        <v>204.1274696242116</v>
+        <v>204.5637271528213</v>
       </c>
       <c r="D165" t="n">
-        <v>202.3600305379298</v>
+        <v>202.7925107277561</v>
       </c>
       <c r="E165" t="n">
-        <v>203.1317258699471</v>
+        <v>203.5658553130514</v>
       </c>
       <c r="F165" t="n">
         <v>22061952</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>207.2889556884766</v>
+        <v>207.7319793701172</v>
       </c>
       <c r="C166" t="n">
-        <v>207.9859732662794</v>
+        <v>208.4304866331397</v>
       </c>
       <c r="D166" t="n">
-        <v>202.8827866092373</v>
+        <v>203.3163933046186</v>
       </c>
       <c r="E166" t="n">
-        <v>203.1068350278156</v>
+        <v>203.5409205656656</v>
       </c>
       <c r="F166" t="n">
         <v>8476130</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>216.1261901855469</v>
+        <v>216.5880889892578</v>
       </c>
       <c r="C167" t="n">
-        <v>217.3210796811071</v>
+        <v>217.7855321689787</v>
       </c>
       <c r="D167" t="n">
-        <v>207.1147059503793</v>
+        <v>207.5573456639063</v>
       </c>
       <c r="E167" t="n">
-        <v>208.1104497289869</v>
+        <v>208.5552175180597</v>
       </c>
       <c r="F167" t="n">
         <v>27634648</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>215.0059661865234</v>
+        <v>215.4654846191406</v>
       </c>
       <c r="C168" t="n">
-        <v>217.8189391620764</v>
+        <v>218.2844695810382</v>
       </c>
       <c r="D168" t="n">
-        <v>214.2342556857575</v>
+        <v>214.6921247911209</v>
       </c>
       <c r="E168" t="n">
-        <v>216.9725509209378</v>
+        <v>217.4362724087111</v>
       </c>
       <c r="F168" t="n">
         <v>17973426</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>213.7363891601562</v>
+        <v>214.1931915283203</v>
       </c>
       <c r="C169" t="n">
-        <v>216.8480883687181</v>
+        <v>217.3115411326012</v>
       </c>
       <c r="D169" t="n">
-        <v>212.0436278294674</v>
+        <v>212.4968123888548</v>
       </c>
       <c r="E169" t="n">
-        <v>215.9519250741898</v>
+        <v>216.4134625370949</v>
       </c>
       <c r="F169" t="n">
         <v>13531912</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>215.5038452148438</v>
+        <v>215.9644165039062</v>
       </c>
       <c r="C170" t="n">
-        <v>215.9270393494879</v>
+        <v>216.3885150821251</v>
       </c>
       <c r="D170" t="n">
-        <v>212.4668237233221</v>
+        <v>212.920904339785</v>
       </c>
       <c r="E170" t="n">
-        <v>214.0600198088612</v>
+        <v>214.517505377909</v>
       </c>
       <c r="F170" t="n">
         <v>9322650</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>214.0848999023438</v>
+        <v>214.5424499511719</v>
       </c>
       <c r="C171" t="n">
-        <v>215.8025638977022</v>
+        <v>216.2637850006089</v>
       </c>
       <c r="D171" t="n">
-        <v>213.7363835226398</v>
+        <v>214.1931887095621</v>
       </c>
       <c r="E171" t="n">
-        <v>215.8025638977022</v>
+        <v>216.2637850006089</v>
       </c>
       <c r="F171" t="n">
         <v>5748410</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>216.4995880126953</v>
+        <v>216.9622955322266</v>
       </c>
       <c r="C172" t="n">
-        <v>217.8189454434699</v>
+        <v>218.2844727217349</v>
       </c>
       <c r="D172" t="n">
-        <v>214.1346966050234</v>
+        <v>214.5923498283906</v>
       </c>
       <c r="E172" t="n">
-        <v>215.5785220046227</v>
+        <v>216.0392610023113</v>
       </c>
       <c r="F172" t="n">
         <v>8253314</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>216.5742645263672</v>
+        <v>217.0371398925781</v>
       </c>
       <c r="C173" t="n">
-        <v>219.8104316974508</v>
+        <v>220.2802235921224</v>
       </c>
       <c r="D173" t="n">
-        <v>212.5414993205557</v>
+        <v>212.9957556217288</v>
       </c>
       <c r="E173" t="n">
-        <v>217.6197984973322</v>
+        <v>218.0849084407712</v>
       </c>
       <c r="F173" t="n">
         <v>14545328</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>216.9227752685547</v>
+        <v>217.3863983154297</v>
       </c>
       <c r="C174" t="n">
-        <v>218.0429869524652</v>
+        <v>218.5090041967839</v>
       </c>
       <c r="D174" t="n">
-        <v>214.8317073810511</v>
+        <v>215.2908612463751</v>
       </c>
       <c r="E174" t="n">
-        <v>216.5493713739179</v>
+        <v>217.0121963549783</v>
       </c>
       <c r="F174" t="n">
         <v>7445670</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>217.2961883544922</v>
+        <v>217.7605895996094</v>
       </c>
       <c r="C175" t="n">
-        <v>220.6817110648645</v>
+        <v>221.1533477841701</v>
       </c>
       <c r="D175" t="n">
-        <v>216.7236235367557</v>
+        <v>217.1868011073286</v>
       </c>
       <c r="E175" t="n">
-        <v>218.267029405307</v>
+        <v>218.7335055132933</v>
       </c>
       <c r="F175" t="n">
         <v>14895010</v>
@@ -3941,16 +3941,16 @@
         <v>45184</v>
       </c>
       <c r="B176" t="n">
-        <v>219.5863800048828</v>
+        <v>220.0556945800781</v>
       </c>
       <c r="C176" t="n">
-        <v>220.9306401180682</v>
+        <v>221.4028277351341</v>
       </c>
       <c r="D176" t="n">
-        <v>218.1923448602668</v>
+        <v>218.658680011093</v>
       </c>
       <c r="E176" t="n">
-        <v>218.9640401735643</v>
+        <v>219.4320246427961</v>
       </c>
       <c r="F176" t="n">
         <v>19835876</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>217.1219329833984</v>
+        <v>217.5859680175781</v>
       </c>
       <c r="C177" t="n">
-        <v>219.5863897080135</v>
+        <v>220.055691802249</v>
       </c>
       <c r="D177" t="n">
-        <v>216.6738513238179</v>
+        <v>217.1369287136668</v>
       </c>
       <c r="E177" t="n">
-        <v>219.5863897080135</v>
+        <v>220.055691802249</v>
       </c>
       <c r="F177" t="n">
         <v>6025196</v>
@@ -3981,16 +3981,16 @@
         <v>45189</v>
       </c>
       <c r="B178" t="n">
-        <v>214.1346893310547</v>
+        <v>214.5923461914062</v>
       </c>
       <c r="C178" t="n">
-        <v>217.4953243751675</v>
+        <v>217.9601637134627</v>
       </c>
       <c r="D178" t="n">
-        <v>213.6119147634422</v>
+        <v>214.0684543299633</v>
       </c>
       <c r="E178" t="n">
-        <v>216.2008545045924</v>
+        <v>216.6629272522962</v>
       </c>
       <c r="F178" t="n">
         <v>9102700</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>213.5621490478516</v>
+        <v>214.0185699462891</v>
       </c>
       <c r="C179" t="n">
-        <v>214.7072482945516</v>
+        <v>215.1661164769732</v>
       </c>
       <c r="D179" t="n">
-        <v>210.6246928001669</v>
+        <v>211.0748358238702</v>
       </c>
       <c r="E179" t="n">
-        <v>214.0351182176433</v>
+        <v>214.4925499366516</v>
       </c>
       <c r="F179" t="n">
         <v>8893070</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>208.359375</v>
+        <v>208.8046875</v>
       </c>
       <c r="C180" t="n">
-        <v>212.4668178763441</v>
+        <v>212.920908938172</v>
       </c>
       <c r="D180" t="n">
-        <v>207.4134214975501</v>
+        <v>207.8567122746539</v>
       </c>
       <c r="E180" t="n">
-        <v>211.2968159576471</v>
+        <v>211.7484064529446</v>
       </c>
       <c r="F180" t="n">
         <v>19818260</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>206.1687469482422</v>
+        <v>206.609375</v>
       </c>
       <c r="C181" t="n">
-        <v>208.981720009663</v>
+        <v>209.4283600048315</v>
       </c>
       <c r="D181" t="n">
-        <v>205.1232129695799</v>
+        <v>205.56160648479</v>
       </c>
       <c r="E181" t="n">
-        <v>208.3593801644883</v>
+        <v>208.8046900822442</v>
       </c>
       <c r="F181" t="n">
         <v>9301132</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>205.5712890625</v>
+        <v>206.0106506347656</v>
       </c>
       <c r="C182" t="n">
-        <v>207.5129862881899</v>
+        <v>207.9564977937941</v>
       </c>
       <c r="D182" t="n">
-        <v>204.973851943588</v>
+        <v>205.4119366307736</v>
       </c>
       <c r="E182" t="n">
-        <v>207.5129862881899</v>
+        <v>207.9564977937941</v>
       </c>
       <c r="F182" t="n">
         <v>6480566</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>206.9404449462891</v>
+        <v>207.3827209472656</v>
       </c>
       <c r="C183" t="n">
-        <v>207.3885266018221</v>
+        <v>207.8317602491532</v>
       </c>
       <c r="D183" t="n">
-        <v>204.2768273358372</v>
+        <v>204.7134106161608</v>
       </c>
       <c r="E183" t="n">
-        <v>205.2476835843621</v>
+        <v>205.6863417921811</v>
       </c>
       <c r="F183" t="n">
         <v>7773994</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>201.8123626708984</v>
+        <v>202.2436828613281</v>
       </c>
       <c r="C184" t="n">
-        <v>207.3636309036192</v>
+        <v>207.8068154518096</v>
       </c>
       <c r="D184" t="n">
-        <v>201.140232617196</v>
+        <v>201.570116308598</v>
       </c>
       <c r="E184" t="n">
-        <v>207.3636309036192</v>
+        <v>207.8068154518096</v>
       </c>
       <c r="F184" t="n">
         <v>16876116</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>202.1608734130859</v>
+        <v>202.5929260253906</v>
       </c>
       <c r="C185" t="n">
-        <v>203.7540695272447</v>
+        <v>204.1895270741018</v>
       </c>
       <c r="D185" t="n">
-        <v>199.895562407303</v>
+        <v>200.322773659748</v>
       </c>
       <c r="E185" t="n">
-        <v>201.6381140098573</v>
+        <v>202.0690493952627</v>
       </c>
       <c r="F185" t="n">
         <v>12780272</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>201.8621520996094</v>
+        <v>202.2935791015625</v>
       </c>
       <c r="C186" t="n">
-        <v>203.1815094923575</v>
+        <v>203.6157562720576</v>
       </c>
       <c r="D186" t="n">
-        <v>200.9410861180837</v>
+        <v>201.3705445849207</v>
       </c>
       <c r="E186" t="n">
-        <v>202.3600239605591</v>
+        <v>202.7925150320374</v>
       </c>
       <c r="F186" t="n">
         <v>5728104</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>201.5883178710938</v>
+        <v>202.0191650390625</v>
       </c>
       <c r="C187" t="n">
-        <v>201.8621565169145</v>
+        <v>202.2935889499734</v>
       </c>
       <c r="D187" t="n">
-        <v>199.4723624157544</v>
+        <v>199.8986872313115</v>
       </c>
       <c r="E187" t="n">
-        <v>200.493008869342</v>
+        <v>200.9215150743698</v>
       </c>
       <c r="F187" t="n">
         <v>6905870</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>202.5342712402344</v>
+        <v>202.9671325683594</v>
       </c>
       <c r="C188" t="n">
-        <v>204.3266130163285</v>
+        <v>204.7633049822854</v>
       </c>
       <c r="D188" t="n">
-        <v>201.6381079491092</v>
+        <v>202.0690539745546</v>
       </c>
       <c r="E188" t="n">
-        <v>203.1068360475105</v>
+        <v>203.5409210755131</v>
       </c>
       <c r="F188" t="n">
         <v>8125304</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>203.0570526123047</v>
+        <v>203.4910278320312</v>
       </c>
       <c r="C189" t="n">
-        <v>204.0278936778503</v>
+        <v>204.4639437871673</v>
       </c>
       <c r="D189" t="n">
-        <v>202.6089709517572</v>
+        <v>203.0419885276364</v>
       </c>
       <c r="E189" t="n">
-        <v>203.1317303567552</v>
+        <v>203.5658651783776</v>
       </c>
       <c r="F189" t="n">
         <v>6365004</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>201.9368286132812</v>
+        <v>202.3684234619141</v>
       </c>
       <c r="C190" t="n">
-        <v>204.6253336073094</v>
+        <v>205.0626745346239</v>
       </c>
       <c r="D190" t="n">
-        <v>200.8415044483082</v>
+        <v>201.2707582862872</v>
       </c>
       <c r="E190" t="n">
-        <v>201.2398110509545</v>
+        <v>201.6699161802955</v>
       </c>
       <c r="F190" t="n">
         <v>6030450</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>203.0072631835938</v>
+        <v>203.4411315917969</v>
       </c>
       <c r="C191" t="n">
-        <v>203.5051350736823</v>
+        <v>203.9400675368411</v>
       </c>
       <c r="D191" t="n">
-        <v>202.2355678314943</v>
+        <v>202.667786967505</v>
       </c>
       <c r="E191" t="n">
-        <v>202.3351330932054</v>
+        <v>202.7675650207238</v>
       </c>
       <c r="F191" t="n">
         <v>5128014</v>
@@ -4261,16 +4261,16 @@
         <v>45210</v>
       </c>
       <c r="B192" t="n">
-        <v>209.6787414550781</v>
+        <v>210.1268615722656</v>
       </c>
       <c r="C192" t="n">
-        <v>211.072791850223</v>
+        <v>211.5238912967507</v>
       </c>
       <c r="D192" t="n">
-        <v>203.6296010874591</v>
+        <v>204.0647931344397</v>
       </c>
       <c r="E192" t="n">
-        <v>203.6296010874591</v>
+        <v>204.0647931344397</v>
       </c>
       <c r="F192" t="n">
         <v>19092228</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>207.6623687744141</v>
+        <v>208.1061859130859</v>
       </c>
       <c r="C193" t="n">
-        <v>210.0521477736711</v>
+        <v>210.5010723609566</v>
       </c>
       <c r="D193" t="n">
-        <v>206.4674792747855</v>
+        <v>206.9087426891506</v>
       </c>
       <c r="E193" t="n">
-        <v>209.9774700287901</v>
+        <v>210.4262350143951</v>
       </c>
       <c r="F193" t="n">
         <v>10234398</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>204.6502227783203</v>
+        <v>205.0876159667969</v>
       </c>
       <c r="C194" t="n">
-        <v>206.3180965546322</v>
+        <v>206.7590544430103</v>
       </c>
       <c r="D194" t="n">
-        <v>203.6544790544139</v>
+        <v>204.0897440677222</v>
       </c>
       <c r="E194" t="n">
-        <v>205.0734168997492</v>
+        <v>205.511714569167</v>
       </c>
       <c r="F194" t="n">
         <v>10914054</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>204.22705078125</v>
+        <v>204.6635284423828</v>
       </c>
       <c r="C195" t="n">
-        <v>205.0734238589863</v>
+        <v>205.5117104036142</v>
       </c>
       <c r="D195" t="n">
-        <v>203.2064043133039</v>
+        <v>203.640700630773</v>
       </c>
       <c r="E195" t="n">
-        <v>204.6253422067913</v>
+        <v>205.0626711033957</v>
       </c>
       <c r="F195" t="n">
         <v>5277652</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>204.8244934082031</v>
+        <v>205.2622375488281</v>
       </c>
       <c r="C196" t="n">
-        <v>206.0442856216064</v>
+        <v>206.4846366618522</v>
       </c>
       <c r="D196" t="n">
-        <v>204.6502352071678</v>
+        <v>205.0876069289224</v>
       </c>
       <c r="E196" t="n">
-        <v>204.9738640921668</v>
+        <v>205.4119274628828</v>
       </c>
       <c r="F196" t="n">
         <v>5979388</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>202.8578948974609</v>
+        <v>203.2914581298828</v>
       </c>
       <c r="C197" t="n">
-        <v>205.9446913049825</v>
+        <v>206.3848518720999</v>
       </c>
       <c r="D197" t="n">
-        <v>202.6338464835167</v>
+        <v>203.0669308627266</v>
       </c>
       <c r="E197" t="n">
-        <v>203.6295902008805</v>
+        <v>204.0648027588579</v>
       </c>
       <c r="F197" t="n">
         <v>4881066</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>196.8087463378906</v>
+        <v>197.2293701171875</v>
       </c>
       <c r="C198" t="n">
-        <v>197.5306666350142</v>
+        <v>197.9528333175071</v>
       </c>
       <c r="D198" t="n">
-        <v>194.2198217011986</v>
+        <v>194.6349123764782</v>
       </c>
       <c r="E198" t="n">
-        <v>195.1408877097841</v>
+        <v>195.5579469066499</v>
       </c>
       <c r="F198" t="n">
         <v>25629102</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>195.0910949707031</v>
+        <v>195.508056640625</v>
       </c>
       <c r="C199" t="n">
-        <v>197.1821477048859</v>
+        <v>197.6035785118542</v>
       </c>
       <c r="D199" t="n">
-        <v>194.6679008431449</v>
+        <v>195.0839580344172</v>
       </c>
       <c r="E199" t="n">
-        <v>196.6842758357219</v>
+        <v>197.1046425578019</v>
       </c>
       <c r="F199" t="n">
         <v>8429336</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>190.7596130371094</v>
+        <v>191.1672973632812</v>
       </c>
       <c r="C200" t="n">
-        <v>195.6636542289447</v>
+        <v>196.0818192889416</v>
       </c>
       <c r="D200" t="n">
-        <v>190.2866438543893</v>
+        <v>190.6933173684743</v>
       </c>
       <c r="E200" t="n">
-        <v>194.5932326962321</v>
+        <v>195.0091100912755</v>
       </c>
       <c r="F200" t="n">
         <v>8837826</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>190.1123809814453</v>
+        <v>190.5186920166016</v>
       </c>
       <c r="C201" t="n">
-        <v>193.0249345268651</v>
+        <v>193.4374703151904</v>
       </c>
       <c r="D201" t="n">
-        <v>189.7389770703362</v>
+        <v>190.144490061047</v>
       </c>
       <c r="E201" t="n">
-        <v>191.3819482016786</v>
+        <v>191.7909725749604</v>
       </c>
       <c r="F201" t="n">
         <v>6678294</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>188.3200378417969</v>
+        <v>188.7225189208984</v>
       </c>
       <c r="C202" t="n">
-        <v>189.4651370835881</v>
+        <v>189.8700654900363</v>
       </c>
       <c r="D202" t="n">
-        <v>186.7268417547583</v>
+        <v>187.1259178256213</v>
       </c>
       <c r="E202" t="n">
-        <v>188.5938612971423</v>
+        <v>188.9969275968134</v>
       </c>
       <c r="F202" t="n">
         <v>10995582</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>190.3613128662109</v>
+        <v>190.7681579589844</v>
       </c>
       <c r="C203" t="n">
-        <v>191.3570566079525</v>
+        <v>191.7660298298551</v>
       </c>
       <c r="D203" t="n">
-        <v>188.7183265760312</v>
+        <v>189.1216602362578</v>
       </c>
       <c r="E203" t="n">
-        <v>188.7183265760312</v>
+        <v>189.1216602362578</v>
       </c>
       <c r="F203" t="n">
         <v>6202812</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>190.1870574951172</v>
+        <v>190.5935211181641</v>
       </c>
       <c r="C204" t="n">
-        <v>191.3570594477957</v>
+        <v>191.7660235734473</v>
       </c>
       <c r="D204" t="n">
-        <v>189.3904594511333</v>
+        <v>189.7952206022489</v>
       </c>
       <c r="E204" t="n">
-        <v>191.1828012516361</v>
+        <v>191.591392956479</v>
       </c>
       <c r="F204" t="n">
         <v>4688744</v>
@@ -4521,16 +4521,16 @@
         <v>45230</v>
       </c>
       <c r="B205" t="n">
-        <v>190.0874786376953</v>
+        <v>190.4937286376953</v>
       </c>
       <c r="C205" t="n">
-        <v>191.2325930836116</v>
+        <v>191.6412903923296</v>
       </c>
       <c r="D205" t="n">
-        <v>188.7681211880006</v>
+        <v>189.1715514916809</v>
       </c>
       <c r="E205" t="n">
-        <v>190.7845114281853</v>
+        <v>191.1922511084796</v>
       </c>
       <c r="F205" t="n">
         <v>6153536</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>189.6642913818359</v>
+        <v>190.0696563720703</v>
       </c>
       <c r="C206" t="n">
-        <v>191.9544897856266</v>
+        <v>192.364749562575</v>
       </c>
       <c r="D206" t="n">
-        <v>189.2659847770316</v>
+        <v>189.6704984760092</v>
       </c>
       <c r="E206" t="n">
-        <v>191.1081167388737</v>
+        <v>191.5165675827893</v>
       </c>
       <c r="F206" t="n">
         <v>4241952</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>191.008544921875</v>
+        <v>191.4167633056641</v>
       </c>
       <c r="C207" t="n">
-        <v>191.7553527465615</v>
+        <v>192.1651671881778</v>
       </c>
       <c r="D207" t="n">
-        <v>190.23684958057</v>
+        <v>190.6434187175929</v>
       </c>
       <c r="E207" t="n">
-        <v>191.0832226655748</v>
+        <v>191.4916006486523</v>
       </c>
       <c r="F207" t="n">
         <v>4742730</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>190.9587554931641</v>
+        <v>191.3668670654297</v>
       </c>
       <c r="C208" t="n">
-        <v>192.5270640866378</v>
+        <v>192.9385274030234</v>
       </c>
       <c r="D208" t="n">
-        <v>190.5106738352476</v>
+        <v>190.9178277802527</v>
       </c>
       <c r="E208" t="n">
-        <v>192.1785476894561</v>
+        <v>192.589266166599</v>
       </c>
       <c r="F208" t="n">
         <v>5291528</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>191.5064086914062</v>
+        <v>191.9157104492188</v>
       </c>
       <c r="C209" t="n">
-        <v>192.4025871593679</v>
+        <v>192.813804296539</v>
       </c>
       <c r="D209" t="n">
-        <v>190.684923157824</v>
+        <v>191.0924691755795</v>
       </c>
       <c r="E209" t="n">
-        <v>192.1785387439166</v>
+        <v>192.5892770281297</v>
       </c>
       <c r="F209" t="n">
         <v>4939936</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>190.8342895507812</v>
+        <v>191.2421417236328</v>
       </c>
       <c r="C210" t="n">
-        <v>192.6764216231658</v>
+        <v>193.0882108115829</v>
       </c>
       <c r="D210" t="n">
-        <v>190.6102563163632</v>
+        <v>191.0176296840605</v>
       </c>
       <c r="E210" t="n">
-        <v>191.6308876143487</v>
+        <v>192.0404422812955</v>
       </c>
       <c r="F210" t="n">
         <v>5692178</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>190.2866363525391</v>
+        <v>190.6933288574219</v>
       </c>
       <c r="C211" t="n">
-        <v>192.1038656541778</v>
+        <v>192.5144420552227</v>
       </c>
       <c r="D211" t="n">
-        <v>189.9381199631426</v>
+        <v>190.3440675969923</v>
       </c>
       <c r="E211" t="n">
-        <v>191.4815258115725</v>
+        <v>191.8907721089678</v>
       </c>
       <c r="F211" t="n">
         <v>7102052</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>189.614501953125</v>
+        <v>190.0197601318359</v>
       </c>
       <c r="C212" t="n">
-        <v>191.1827952819032</v>
+        <v>191.5914053334485</v>
       </c>
       <c r="D212" t="n">
-        <v>189.0419523497734</v>
+        <v>189.4459868330017</v>
       </c>
       <c r="E212" t="n">
-        <v>190.6849234191899</v>
+        <v>191.0924693820593</v>
       </c>
       <c r="F212" t="n">
         <v>9231126</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>188.8428039550781</v>
+        <v>189.2463989257812</v>
       </c>
       <c r="C213" t="n">
-        <v>190.087483694286</v>
+        <v>190.4937387953852</v>
       </c>
       <c r="D213" t="n">
-        <v>187.6977046725447</v>
+        <v>188.0988523362723</v>
       </c>
       <c r="E213" t="n">
-        <v>189.3406758507613</v>
+        <v>189.7453348736228</v>
       </c>
       <c r="F213" t="n">
         <v>10710700</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>190.0128021240234</v>
+        <v>190.4188995361328</v>
       </c>
       <c r="C214" t="n">
-        <v>190.6351419811006</v>
+        <v>191.0425694646714</v>
       </c>
       <c r="D214" t="n">
-        <v>189.1913165514505</v>
+        <v>189.5956582757252</v>
       </c>
       <c r="E214" t="n">
-        <v>190.4857864929397</v>
+        <v>190.8928947723488</v>
       </c>
       <c r="F214" t="n">
         <v>3585902</v>
@@ -4721,16 +4721,16 @@
         <v>45245</v>
       </c>
       <c r="B215" t="n">
-        <v>194.9915161132812</v>
+        <v>195.4082641601562</v>
       </c>
       <c r="C215" t="n">
-        <v>195.2902422759904</v>
+        <v>195.7076287790779</v>
       </c>
       <c r="D215" t="n">
-        <v>191.3072672901193</v>
+        <v>191.7161411303013</v>
       </c>
       <c r="E215" t="n">
-        <v>191.9544946477858</v>
+        <v>192.3647517827007</v>
       </c>
       <c r="F215" t="n">
         <v>10792518</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>197.7049255371094</v>
+        <v>198.1274566650391</v>
       </c>
       <c r="C216" t="n">
-        <v>198.8998150039967</v>
+        <v>199.3248998264932</v>
       </c>
       <c r="D216" t="n">
-        <v>193.8215157774209</v>
+        <v>194.2357473574181</v>
       </c>
       <c r="E216" t="n">
-        <v>194.9915177279779</v>
+        <v>195.4082498134254</v>
       </c>
       <c r="F216" t="n">
         <v>13843576</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>196.8585357666016</v>
+        <v>197.2792663574219</v>
       </c>
       <c r="C217" t="n">
-        <v>198.650877550184</v>
+        <v>199.075438775092</v>
       </c>
       <c r="D217" t="n">
-        <v>196.4104541191669</v>
+        <v>196.8302270595834</v>
       </c>
       <c r="E217" t="n">
-        <v>198.1530056766246</v>
+        <v>198.5765028383123</v>
       </c>
       <c r="F217" t="n">
         <v>7886928</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>199.2483367919922</v>
+        <v>199.6741638183594</v>
       </c>
       <c r="C218" t="n">
-        <v>199.6964184549799</v>
+        <v>200.1232031068169</v>
       </c>
       <c r="D218" t="n">
-        <v>195.7632335561072</v>
+        <v>196.1816123338645</v>
       </c>
       <c r="E218" t="n">
-        <v>195.7632335561072</v>
+        <v>196.1816123338645</v>
       </c>
       <c r="F218" t="n">
         <v>8610496</v>
@@ -4801,16 +4801,16 @@
         <v>45251</v>
       </c>
       <c r="B219" t="n">
-        <v>199.4723663330078</v>
+        <v>199.898681640625</v>
       </c>
       <c r="C219" t="n">
-        <v>200.443222579708</v>
+        <v>200.8716128157329</v>
       </c>
       <c r="D219" t="n">
-        <v>199.1736401652659</v>
+        <v>199.5993170308751</v>
       </c>
       <c r="E219" t="n">
-        <v>200.443222579708</v>
+        <v>200.8716128157329</v>
       </c>
       <c r="F219" t="n">
         <v>5440248</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>199.2732238769531</v>
+        <v>199.6991119384766</v>
       </c>
       <c r="C220" t="n">
-        <v>200.443225856661</v>
+        <v>200.8716144542094</v>
       </c>
       <c r="D220" t="n">
-        <v>198.7006742424965</v>
+        <v>199.1253386471272</v>
       </c>
       <c r="E220" t="n">
-        <v>200.393435628916</v>
+        <v>200.821717814458</v>
       </c>
       <c r="F220" t="n">
         <v>5318582</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>200.3934326171875</v>
+        <v>200.8217163085938</v>
       </c>
       <c r="C221" t="n">
-        <v>201.6381123228843</v>
+        <v>202.0690561614421</v>
       </c>
       <c r="D221" t="n">
-        <v>199.39768885263</v>
+        <v>199.823844426315</v>
       </c>
       <c r="E221" t="n">
-        <v>199.39768885263</v>
+        <v>199.823844426315</v>
       </c>
       <c r="F221" t="n">
         <v>9677360</v>
@@ -4861,16 +4861,16 @@
         <v>45254</v>
       </c>
       <c r="B222" t="n">
-        <v>197.1572570800781</v>
+        <v>197.5786285400391</v>
       </c>
       <c r="C222" t="n">
-        <v>200.8912960399281</v>
+        <v>201.320648019964</v>
       </c>
       <c r="D222" t="n">
-        <v>196.9332086649498</v>
+        <v>197.3541012807171</v>
       </c>
       <c r="E222" t="n">
-        <v>200.3934241786148</v>
+        <v>200.8217120893074</v>
       </c>
       <c r="F222" t="n">
         <v>6250566</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>197.5804595947266</v>
+        <v>198.0027313232422</v>
       </c>
       <c r="C223" t="n">
-        <v>198.5264131326399</v>
+        <v>198.95070656632</v>
       </c>
       <c r="D223" t="n">
-        <v>195.7134400354854</v>
+        <v>196.1317215436216</v>
       </c>
       <c r="E223" t="n">
-        <v>197.6551373383274</v>
+        <v>198.0775686691637</v>
       </c>
       <c r="F223" t="n">
         <v>8145314</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>202.2604522705078</v>
+        <v>202.6927185058594</v>
       </c>
       <c r="C224" t="n">
-        <v>203.4055515227478</v>
+        <v>203.8402650370277</v>
       </c>
       <c r="D224" t="n">
-        <v>198.1530092397837</v>
+        <v>198.5764971454327</v>
       </c>
       <c r="E224" t="n">
-        <v>198.1530092397837</v>
+        <v>198.5764971454327</v>
       </c>
       <c r="F224" t="n">
         <v>15544086</v>
@@ -4921,16 +4921,16 @@
         <v>45260</v>
       </c>
       <c r="B225" t="n">
-        <v>205.6459655761719</v>
+        <v>206.0854797363281</v>
       </c>
       <c r="C225" t="n">
-        <v>206.3678858502905</v>
+        <v>206.8089429251452</v>
       </c>
       <c r="D225" t="n">
-        <v>201.1651188387711</v>
+        <v>201.5950563676277</v>
       </c>
       <c r="E225" t="n">
-        <v>202.6089593870083</v>
+        <v>203.0419827452619</v>
       </c>
       <c r="F225" t="n">
         <v>19825958</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>202.9574737548828</v>
+        <v>203.3912353515625</v>
       </c>
       <c r="C226" t="n">
-        <v>205.9944953351487</v>
+        <v>206.4347476675744</v>
       </c>
       <c r="D226" t="n">
-        <v>202.3849241177957</v>
+        <v>202.8174620588978</v>
       </c>
       <c r="E226" t="n">
-        <v>205.9944953351487</v>
+        <v>206.4347476675744</v>
       </c>
       <c r="F226" t="n">
         <v>9830426</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>202.8578948974609</v>
+        <v>203.2914581298828</v>
       </c>
       <c r="C227" t="n">
-        <v>205.6210776356079</v>
+        <v>206.0605465511206</v>
       </c>
       <c r="D227" t="n">
-        <v>202.5093785188463</v>
+        <v>202.9421968757102</v>
       </c>
       <c r="E227" t="n">
-        <v>205.4717221555407</v>
+        <v>205.9108718572276</v>
       </c>
       <c r="F227" t="n">
         <v>10662472</v>
@@ -4981,16 +4981,16 @@
         <v>45265</v>
       </c>
       <c r="B228" t="n">
-        <v>201.3144989013672</v>
+        <v>201.7447509765625</v>
       </c>
       <c r="C228" t="n">
-        <v>203.6296001182212</v>
+        <v>204.0648000591106</v>
       </c>
       <c r="D228" t="n">
-        <v>200.1942871647755</v>
+        <v>200.6221451082667</v>
       </c>
       <c r="E228" t="n">
-        <v>202.8330020667649</v>
+        <v>203.2664995075036</v>
       </c>
       <c r="F228" t="n">
         <v>11165368</v>
@@ -5001,16 +5001,16 @@
         <v>45266</v>
       </c>
       <c r="B229" t="n">
-        <v>208.4838409423828</v>
+        <v>208.9294281005859</v>
       </c>
       <c r="C229" t="n">
-        <v>209.3053264709095</v>
+        <v>209.7526693690324</v>
       </c>
       <c r="D229" t="n">
-        <v>202.111087225144</v>
+        <v>202.5430540605156</v>
       </c>
       <c r="E229" t="n">
-        <v>202.5093786347802</v>
+        <v>202.9421967281512</v>
       </c>
       <c r="F229" t="n">
         <v>22082070</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>208.2349090576172</v>
+        <v>208.6799621582031</v>
       </c>
       <c r="C230" t="n">
-        <v>209.8529926306889</v>
+        <v>210.301504004023</v>
       </c>
       <c r="D230" t="n">
-        <v>207.4383110290285</v>
+        <v>207.8816615888438</v>
       </c>
       <c r="E230" t="n">
-        <v>209.1061848277327</v>
+        <v>209.553100075183</v>
       </c>
       <c r="F230" t="n">
         <v>11250552</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>210.4006652832031</v>
+        <v>210.8503265380859</v>
       </c>
       <c r="C231" t="n">
-        <v>211.3466188423151</v>
+        <v>211.7983017574615</v>
       </c>
       <c r="D231" t="n">
-        <v>206.6168358529111</v>
+        <v>207.0584104342674</v>
       </c>
       <c r="E231" t="n">
-        <v>208.5087429711349</v>
+        <v>208.9543608730186</v>
       </c>
       <c r="F231" t="n">
         <v>15479122</v>
@@ -5061,16 +5061,16 @@
         <v>45271</v>
       </c>
       <c r="B232" t="n">
-        <v>209.4049072265625</v>
+        <v>209.8524627685547</v>
       </c>
       <c r="C232" t="n">
-        <v>210.2015052408435</v>
+        <v>210.6507633305971</v>
       </c>
       <c r="D232" t="n">
-        <v>207.737033457815</v>
+        <v>208.1810242975352</v>
       </c>
       <c r="E232" t="n">
-        <v>209.1061810719767</v>
+        <v>209.5530981544992</v>
       </c>
       <c r="F232" t="n">
         <v>10084242</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>210.2015075683594</v>
+        <v>210.6507568359375</v>
       </c>
       <c r="C233" t="n">
-        <v>213.0393680837389</v>
+        <v>213.4946825159905</v>
       </c>
       <c r="D233" t="n">
-        <v>209.1808611283768</v>
+        <v>209.6279290383095</v>
       </c>
       <c r="E233" t="n">
-        <v>209.4546997705474</v>
+        <v>209.9023529370315</v>
       </c>
       <c r="F233" t="n">
         <v>11903364</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>208.9319305419922</v>
+        <v>209.3784637451172</v>
       </c>
       <c r="C234" t="n">
-        <v>211.2470317356803</v>
+        <v>211.6985128160823</v>
       </c>
       <c r="D234" t="n">
-        <v>206.6168293483041</v>
+        <v>207.058414674152</v>
       </c>
       <c r="E234" t="n">
-        <v>210.8736278272195</v>
+        <v>211.324310861852</v>
       </c>
       <c r="F234" t="n">
         <v>9696816</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>216.2755432128906</v>
+        <v>216.7377624511719</v>
       </c>
       <c r="C235" t="n">
-        <v>217.0721412654777</v>
+        <v>217.5360629752433</v>
       </c>
       <c r="D235" t="n">
-        <v>210.7242747491134</v>
+        <v>211.1746299409902</v>
       </c>
       <c r="E235" t="n">
-        <v>210.8487427200225</v>
+        <v>211.299363922054</v>
       </c>
       <c r="F235" t="n">
         <v>24681376</v>
@@ -5141,16 +5141,16 @@
         <v>45275</v>
       </c>
       <c r="B236" t="n">
-        <v>222.3246765136719</v>
+        <v>222.7998352050781</v>
       </c>
       <c r="C236" t="n">
-        <v>223.7934046013853</v>
+        <v>224.2717023006927</v>
       </c>
       <c r="D236" t="n">
-        <v>215.8274547156852</v>
+        <v>216.2887273578426</v>
       </c>
       <c r="E236" t="n">
-        <v>217.0970219011812</v>
+        <v>217.5610078988328</v>
       </c>
       <c r="F236" t="n">
         <v>41567234</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>221.6774597167969</v>
+        <v>222.1512298583984</v>
       </c>
       <c r="C237" t="n">
-        <v>225.7849028221614</v>
+        <v>226.2674514110807</v>
       </c>
       <c r="D237" t="n">
-        <v>220.059376069229</v>
+        <v>220.5296880346145</v>
       </c>
       <c r="E237" t="n">
-        <v>222.0508636354664</v>
+        <v>222.5254318177332</v>
       </c>
       <c r="F237" t="n">
         <v>20182072</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>218.4163970947266</v>
+        <v>218.8832092285156</v>
       </c>
       <c r="C238" t="n">
-        <v>222.7229857639557</v>
+        <v>223.1990021876826</v>
       </c>
       <c r="D238" t="n">
-        <v>216.5742650842882</v>
+        <v>217.037140107192</v>
       </c>
       <c r="E238" t="n">
-        <v>221.851709984881</v>
+        <v>222.3258642677111</v>
       </c>
       <c r="F238" t="n">
         <v>16064694</v>
@@ -5201,16 +5201,16 @@
         <v>45280</v>
       </c>
       <c r="B239" t="n">
-        <v>215.0557556152344</v>
+        <v>215.515380859375</v>
       </c>
       <c r="C239" t="n">
-        <v>223.7934006648798</v>
+        <v>224.2717003324399</v>
       </c>
       <c r="D239" t="n">
-        <v>213.761285742809</v>
+        <v>214.2181443972834</v>
       </c>
       <c r="E239" t="n">
-        <v>220.0593617216393</v>
+        <v>220.5296808608196</v>
       </c>
       <c r="F239" t="n">
         <v>26449942</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>216.0764007568359</v>
+        <v>216.5381927490234</v>
       </c>
       <c r="C240" t="n">
-        <v>217.3210804846979</v>
+        <v>217.7855325690063</v>
       </c>
       <c r="D240" t="n">
-        <v>212.6908779745891</v>
+        <v>213.1454345291965</v>
       </c>
       <c r="E240" t="n">
-        <v>213.5372510732287</v>
+        <v>213.9936164709952</v>
       </c>
       <c r="F240" t="n">
         <v>10663008</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>230.3404235839844</v>
+        <v>230.8327026367188</v>
       </c>
       <c r="C241" t="n">
-        <v>232.1576529177932</v>
+        <v>232.6538157175535</v>
       </c>
       <c r="D241" t="n">
-        <v>216.0763971777259</v>
+        <v>216.5381914319252</v>
       </c>
       <c r="E241" t="n">
-        <v>216.7236245479556</v>
+        <v>217.1868020438446</v>
       </c>
       <c r="F241" t="n">
         <v>46080814</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>234.0495758056641</v>
+        <v>234.5497894287109</v>
       </c>
       <c r="C242" t="n">
-        <v>236.8874364293519</v>
+        <v>237.3937151629181</v>
       </c>
       <c r="D242" t="n">
-        <v>223.220862324107</v>
+        <v>223.6979326879324</v>
       </c>
       <c r="E242" t="n">
-        <v>226.033835431122</v>
+        <v>226.516917715561</v>
       </c>
       <c r="F242" t="n">
         <v>54628644</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>234.4727630615234</v>
+        <v>234.9738922119141</v>
       </c>
       <c r="C243" t="n">
-        <v>236.6882837648982</v>
+        <v>237.1941480580545</v>
       </c>
       <c r="D243" t="n">
-        <v>231.0623377160548</v>
+        <v>231.5561779023307</v>
       </c>
       <c r="E243" t="n">
-        <v>233.2529709034875</v>
+        <v>233.751493041448</v>
       </c>
       <c r="F243" t="n">
         <v>25262992</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>233.7259521484375</v>
+        <v>234.2254791259766</v>
       </c>
       <c r="C244" t="n">
-        <v>237.6840243427367</v>
+        <v>238.1920106454894</v>
       </c>
       <c r="D244" t="n">
-        <v>232.8297736787868</v>
+        <v>233.3273853135145</v>
       </c>
       <c r="E244" t="n">
-        <v>235.2693427685673</v>
+        <v>235.7721683325258</v>
       </c>
       <c r="F244" t="n">
         <v>16839956</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>234.6470031738281</v>
+        <v>235.1484985351562</v>
       </c>
       <c r="C245" t="n">
-        <v>236.6633933371701</v>
+        <v>237.169198194464</v>
       </c>
       <c r="D245" t="n">
-        <v>232.0580786001128</v>
+        <v>232.5540408259353</v>
       </c>
       <c r="E245" t="n">
-        <v>234.4727601766899</v>
+        <v>234.9738831401028</v>
       </c>
       <c r="F245" t="n">
         <v>15961140</v>
